--- a/python/네이버뉴스크롤링/naver_news.xlsx
+++ b/python/네이버뉴스크롤링/naver_news.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="코로나" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LG전자" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="프로미스나인" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="프로미스나인1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="LG전자1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -816,4 +820,550 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="60" customWidth="1" min="1" max="1"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>권봉석 LG전자 사장 "LG팬덤 만드는 미래사업 체계적으로 준비"</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>임직원에게 이메일로 신년 메시지 전달고객가치 기반의 변화와 성장 노력 강조권봉석 LG전자 CEO /사진제공=LG전자[서울경제] LG전자 대표이사인 권봉석 최고경영자(CEO) 사장이 새해를 맞아 임직원들에게 일하는 방식과 생각의 전환을 강조하며 “일관성 있는 경영 성과를 내자”고 격려했다. 권 사장은 4일 시무식을 대신해 임직원들에게 이메일로 신년 메시지를 전했다. 먼저 권 사장은 지난해 신종 코로나바이러스 감염증(코로나19)가 가져온 전례 없는 위기에서도 임직원들이 고객가치를 실현하기 위해 치열하게 고민하고 진정성 있게 노력해준 것에 대해 감사의 인사를 전했다. 권 사장은 “임직원들의 열정과 우수한 역량 덕분에 LG전자가 글로벌 시장에서 고객으로부터 신뢰받는 브랜드로 인정받는 가운데 하반기에는 분기 최고 수준의 실적을 달성하며 성장성과 수익성을 높일 수 있었다”고 말했다. 그는 올해의 전략 과제와 관련해 “고객가치를 기반으로 ‘성장을 통한 변화, 변화를 통한 성장’을 만들어가는 노력은 계속돼야 한다”면서 “지난해 성과가 일회성이 아니라 우리의 본질적 경쟁력에 기반한 것임을 입증하는 경영 성과를 일관성 있게 내야 한다”고 강조했다. 이어 기존 사업의 경쟁력을 높이는 가운데 고객에 대한 이해를 기반으로 LG팬덤을 만들 수 있는 미래사업을 체계적으로 준비하고 실행역량을 높여 질적 성장 중심의 사업 포트폴리오를 고도화해야 한다고 덧붙였다. 권 사장은 “전략 과제를 달성하기 위해 임직원들이 일하는 방식과 생각을 전환하는 것이 매우 중요하다”며 “디지털 기술에 기반한 디지털 전환(Digital Transformation)은 일상적 혁신을 뛰어넘어 아날로그 영역인 고객의 감성과 고객의 가치를 이해하는 것이 궁극적인 목표임을 잊지 말아야 한다”고 강조했다.또한 그는 기존에 없던 혁신을 창출하기 위해 X+α를 통해 Super X를 만드는 ‘점진적 성장(Incremental Growth)’을 뛰어넘어 X+α를 통해 Y를 만드는 ‘파괴적인 변화(Disruptive Change)’에 집중해야 한다고 말했다. 이는 표준화, 공용화, 모듈화에 중점을 둔 제조업 관점에서 벗어나 세분화(Micro Segmentation) 전략을 토대로 고객 관점의 상품과 서비스를 과감하게 개발하는 시도가 이뤄져야 한다는 것을 의미한다고 설명했다. 그는 이를 위해 세계적 수준의 전문역량 육성과 확보가 필수적이며 임직원들에게 새로운 도전을 장려하는 열린 조직문화가 정착돼야 한다고 말했다.끝으로 권 사장은 “단순히 물을 담아 두면 저수지에 그치지만 그 물을 활용하면 발전소가 된다”며 “지금까지 축적해온 역량을 활용해 발전소와 같은 LG전자를 만들어 가자”고 당부했다. /전희윤기자 heeyoun@sedaily.com▶ 엄마 기자 취재수첩 [서지혜의 건강한 육아]▶ 中투자 알짜정보만 쏙쏙  [니하오 중국증시]▶ 네이버 채널에서 '서울경제' 구독해주세요!저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>"당분간 LG 냉장고, 노트북, 스마트폰 구입 멈춰달라"</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>LG트윈타워 청소노동자 집단해고 공대위, LG 제품 불매 운동 돌입[김종훈, 유성호 기자]        ▲  고용승계와 처우개선, 노조활동 등을 요구하다가 집단해고된 LG트윈타워 청소노동자들이 4일 오전 서울 여의도 LG트윈타워 로비에서 해고 철회를 요구하고 있다.            ⓒ 유성호                 ▲  LG트윈타워 청소노동자 집단해고 사태해결을 위한 노동시민사회단체 공동대책위원회 회원들이 4일 오전 서울 여의도 LG트윈타워를 방문해 로비에서 농성중인 LG트윈타워 청소노동자를 응원하고 있다.            ⓒ 유성호   "이제는 괜찮다."지난 12월 31일부로 해고된 'LG트윈타워' 청소노동자 박소영씨가 4일 오후 &lt;오마이뉴스&gt;와의 통화에서 "아픈 곳은 없냐"라는 질문에 "까마귀 떼 같던 용역들이 많이 없어졌다"면서 한 말이다. 그는 "다시 전기도 들어오고 난방도 된다"면서 "많은 시민들과 언론에서 우리한테 관심 가져주시고 응원해준 덕분"이라고 고마워했다.박소영씨와 동료들은 집단해고 사태에 반발해 지난달 16일부터 LG트윈타워 로비에 농성장을 꾸린 채 고용승계 등을 요구하며 파업에 돌입했다. 그러나 새해 첫날인 1일 오후가 되자 농성장 전기와 난방이 예고 없이 중단됐다. 농성장으로 전달되던 도시락 반입도 건물을 봉쇄한 용역들에 의해 차단했다.관련 소식이 SNS에 퍼지자 시민들은 서울 여의도 LG트윈타워 앞에 자발적으로 모여들었다. 시민들이 다시 한번 도시락 반입을 시도하는 과정에서 이를 차단하려는 용역들과 몸싸움이 일기도 했다.2일 장혜영 정의당 의원과 강민정 열린민주당 의원 등이 현장을 찾아 '도시락 반입' 등을 요구하며 파업 노동자들을 응원했다. 끊겼던 전기와 난방은 2일 오후 1시께부터 공급되기 시작했고 도시락 반입도 다시 허용됐다.2019년 10월, LG트윈타워 청소노동자들은 관리자 갑질 및 근무시간 꺾기 등을 이유로 노동조합을 결성했다. 이후 사측과 교섭하며 관행으로 여겨지던 토요일 공짜노동 등이 사라졌다. 하지만 처우개선과 정년연장 등을 요구하자 교섭이 교착됐다.결국 LG트윈타워 건물을 관리하는 LG그룹 계열사 '에스엔아이코퍼레이션'은 지난해를 끝으로 박씨 등 청소노동자들이 소속된 하청업체 '지수아이앤씨'와 계약을 종료했다. 노동자들이 소속된 업체를 바꿈으로써 사실상 해고 통보를 한 것이다.공공운수노조에 따르면 노동자들이 소속됐던 지수아이앤씨는 구광모 LG그룹 회장의 고모인 구미정씨와 구훤미씨가 각각 50%씩 지분을 나눠 소유한 회사다. 두 사람은 이 회사를 통해 연간 50~60억 원에 달하는 배당금을 받아 간 것으로 전해지고 있다."청소노동자 쫓아내면 LG 제품도 쫓겨난다"              ▲  노동시민사회단체 관계자들이 4일 오전 서울 여의도 LG트윈타워 앞에서 기자회견을 열어 LG트윈타워 청소노동자 집단해고 사태를 규탄하며 LG 제품에 대한 불매운동을 선언했다.이날 이들은 “청소노동자라고 무시당하지 않고 사람대접을 받기 위해 노조에 가입했지만 돌아온 것은 집단해고로 쫓겨났다”며 “청소노동자들의 고용 승계가 보장되고 노동조합의 요구안이 관철될 때까지 LG 제품을 불매하겠다”고 말했다.            ⓒ 유성호            ▲ “청소노동자 쫓어내는 LG, LG 제품 불매합니다”              ⓒ 유성호           'LG트윈타워 청소노동자 집단해고 사태 해결을 위한 노동시민사회단체 공동대책위원회(공대위)'는 4일 트윈타워 앞에서 기자회견을 열고 LG 제품 불매 운동 돌입을 선언했다.공대위는 "지난 한 달 집단해고 사태를 해결하고자 계속해서 LG 측과 대화 시도를 해왔지만, LG는 어떠한 대화나 답변조차 거부하며 새해부터 농성장에 음식과 전기를 끊었다"면서 "LG에 대한 사회적 압력 없이 문제 해결이 불가능하다고 보고 불매 운동을 시작한다. '고용승계' 한마디로 해결될 문제를 불매운동까지 이르게 한 책임은 LG에 있다"라고 밝혔다.이날 공대위가 불매를 선언한 상품은 청소노동자들의 지주회사인 (주)LG가 30% 이상 지분을 가진 LG전자, LG생활건강, LG유플러스의 제품들이다.공대위는 "LG트윈타워 청소노동자들이 제자리에 돌아갈 수 있을 때까지 당분간 LG생활건강에서 만든 엘라스틴, 페리오, 샤프란, 데페이샵을 비롯해 LG전자의 TV, 냉장고, LG그램 노트북, LG스마트폰의 구입을 청소노동자들이 돌아갈 때까지 멈춰달라"고 호소했다.이런 가운데 구광모 LG대표는 4일 직원들에게 보낸 영상 신년사를 통해 "사람들의 생활방식이 더욱 개인화되고 소비 패턴도 훨씬 빠르게 변하면서 고객 안에 숨겨진 마음을 읽는 것이 더욱 중요해졌다"면서 "이제는 고객을 더 세밀히 이해하고 마음  속 열망을 찾아, 이것을 현실로 만들어 고객 감동을 키워갈 때"라고 강조했다.이어 구 대표는 "고객을 촘촘히 쪼개서 보며 그렇게 세분화된 고객별로 각각의 니즈를 깊고 구체적으로 파악하고, 평범하고 보편적인 니즈가 아니라 고객을 완벽하게 만족시킬 수 있는 니즈를 찾아야 한다. 고객의 삶에 더 깊이 공감해야 한다"라고 말했다.              ▲  노동시민사회단체 관계자들이 4일 오전 서울 여의도 LG트윈타워 앞에서 기자회견을 열어 LG트윈타워 청소노동자 집단해고 사태를 규탄하며 LG 제품에 대한 불매운동을 선언했다.            ⓒ 유성호   LG트윈타워 건물을 관리하는 에스엔아이코퍼레이션 측은 4일 오후 &lt;오마이뉴스&gt;와의 통화에서 "고용승계를 위해 최대한 노력한다는 입장은 변함이 없다"면서 "내부 검토를 하고 있다"라고 밝혔다.그러면서 에스앤아이코퍼레이션 측은 "1일부로 양태가 달라졌다. 그전까진 계약 해지 이전에 농성을 한 것이라면 지금은 계약 해지 후 농성을 하는 것"이라면서 "내부적으로 어떻게 할지에 대해 다양한 방면으로 고민 중"이라고 덧붙였다. 하지만 '국회를 비롯해 시민들이 자발적으로 연대하고 있는 것을 아느냐'라는 질문에 대해선 "알고 있다"면서 "뭔가 액션이 일지 않겠냐"라는 두루뭉술한 답변만 남겼다.지난달 30일 더불어민주당 을지로위원회 소속 우원식·박홍근·박영순·이동주 의원 등은 트윈타워 농성장을 찾아 "고용 승계가 이뤄지지 않은 상황에 대해 납득할 수 없다"면서 "LG기업이 사회적 책임을 다해야 한다"라고 요구했다. 다음날인 31일에는 긴급 논평을 내고 "민주당 을지로위는 집단해고로 갈 곳 잃은 청소노동자들이 다시 일터로 돌아갈 수 있도록 노동자들과 함께 연대하며 싸울 것"이라고 밝혔다.한편 청소노동자들의 상황이 알려지자 시민들의 연대 움직임 역시 이어졌다. 트위터를 중심으로 일어난 '밥 한 끼 연대' 운동에 3000여 명이 넘는 시민들이 참여해 4500만 원 가량의 성금이 쌓였다.지난 22일 청와대 국민청원 게시판에 올라온 'LG(LG트윈타워) 건물미화관리 80명 부당집단해고 말도 안 되는 현실 도와주세요'라는 제목의 국민청원에는 4일 오후 3시 기준 2만2000명에 육박하는 시민들이 동의 의사를 밝혔다.              ⓒ 유성호     저작권자(c) 오마이뉴스(시민기자), 무단 전재 및 재배포 금지▶오마이뉴스 '시리즈'에서 연재하세요!▶교사·학부모 필독서 《삶을 위한 수업》▶오마이뉴스 취재 후원하기</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>LG전자가 달라졌다? "'파괴적 변화'에 집중해야"</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>[신년사] 권봉석 LG전자 사장고객 관점에서 과감하게 상품·서비스 개발 필요, 미래 'LG 팬덤' 준비2020년 연간 영업익 사상 첫 3조 돌파 확실시 "본질적 경쟁력 입증하자"LG전자(066570)CEO(최고경영자) 권봉석 사장이 4일 "기존에 없던 혁신을 창출하기 위해 X+α를 통해 수퍼 X를 만드는 ‘점진적 성장’을 뛰어넘어 X+α를 통해 Y를 만드는 ‘파괴적인 변화’에 집중해야 한다"고 말했다. 권 사장은 이날 시무식을 대신해 임직원에게 보낸 이메일 신년 메시지에서 "기존에 없던 혁신을 창출하기 위해 표준화·공용화·모듈화에 중점을 둔 제조업 관점에서 벗어나 세분화 전략을 토대로 고객 관점의 상품·서비스를 과감하게 개발하는 시도가 이뤄져야 한다는 것"이라며 이같이 강조했다.그는 올해의 전략 과제와 관련 "고객가치를 기반으로 ‘성장을 통한 변화, 변화를 통한 성장’을 만들어가는 노력은 계속돼야 한다"면서 "지난해 성과가 일회성이 아니라 우리의 본질적 경쟁력에 기반한 것임을 입증하는 경영 성과를 일관성 있게 내야 한다"고 강조했다. LG전자는 지난해 사상 처음으로 연간 영업이익 3조원 돌파가 확실시되고 있다.권 사장은 이어 "기존 사업의 경쟁력을 높이는 가운데 고객에 대한 이해를 기반으로 LG 팬덤(fandom·충성 고객)을 만들 수 있는 미래사업을 체계적으로 준비하고 실행역량을 높여 질적 성장 중심의 사업 포트폴리오를 고도화해야 한다"고 덧붙였다.이를 위해 세계적 수준의 전문역량 육성·확보가 필수적이며 임직원들에게 새로운 도전을 장려하는 열린 조직문화가 정착돼야 한다고도 말했다.권 사장은 "전략 과제를 달성하기 위해 임직원들이 일하는 방식·생각을 전환하는 것이 매우 중요하다"며 "디지털 기술에 기반한 디지털 전환(Digital Transformation)은 일상적 혁신을 뛰어넘어 아날로그 영역인 고객의 감성과 고객의 가치를 이해하는 것이 궁극적인 목표임을 잊지 말아야 한다"고 강조했다.끝으로 권 사장은 "단순히 물을 담아 두면 저수지에 그치지만 그 물을 활용하면 발전소가 된다"며 "지금까지 축적해온 역량을 활용해 발전소와 같은 LG전자를 만들어 가자"고 당부했다.  [장우정 기자 woo@chosunbiz.com] ▶네이버에서 '명품 경제뉴스' 조선비즈를 구독하세요▶[단독] 우리은행, 라임펀드 돌려막기 시도… 他 금융사 유인전략 논의▶新기술 '고도화' 경쟁… 자율주행차·플라잉카 상용화 성큼	저작권자 ⓒ 조선비즈, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>LG 오브제컬렉션, CES 2021서 해외 첫선</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>온라인 체험 사이트 운영…올해 글로벌 순차 출시(지디넷코리아=권혜미  기자)LG전자가 미국 현지시간으로 1월 11일에 개막하는 CES 2021을 통해 공간 인테리어 가전 ‘LG 오브제컬렉션’을 글로벌 시장에 선보인다고 4일 밝혔다.LG전자는 집 전체의 공간 인테리어를 완성하는 LG 오브제컬렉션의 가치를 고객들이 직접 경험할 수 있도록 온라인 체험 사이트를 운영한다. 또 올해 순차적으로 해외시장에도 출시할 계획이다.LG전자는 집 전체의 공간 인테리어를 완성하는 LG 오브제컬렉션의 가치를 고객들이 직접 경험할 수 있도록 온라인 체험 사이트를 운영한다. (사진=LG전자)LG 오브제컬렉션은 집안 전체의 인테리어 톤과 조화를 이루도록 고객들이 다양한 재질과 색상을 직접 조합할 수 있다.LG전자는 밀레니얼, X세대, 베이비부머 등 다양한 세대가 색상을 고를 수 있도록 하하기 위해 세계적인 색채연구소인 미국 팬톤컬러연구소와 협업했다. 인테리어에 맞춰 선택할 수 있도록 소재도 프리미엄 가구에 주로 쓰이는 페닉스를 비롯해 스테인리스, 글라스, 메탈 등 다양한 재질을 선정했다.LG전자는 지난해 10월 상냉장 하냉동 냉장고, 빌트인 타입 냉장고, 김치 냉장고, 1도어 냉장·냉동·김치 컨버터블 냉장고, 식기세척기, 광파오븐, 정수기, 워시타워, 스타일러 등 생활가전 전반에 걸쳐 LG 오브제컬렉션 신제품 11종을 출시했다. LG 오브제컬렉션 제품군은 더 늘어날 예정이다.LG전자 H&amp;A사업본부장 류재철 부사장은 “LG 생활가전의 뛰어난 성능은 물론이고 공간과 조화를 이루는 차별화된 디자인까지 갖춘 LG 오브제컬렉션이 해외 고객들에게도 새로운 경험과 가치를 제공하게 될 것”이라고 말했다.권혜미 기자(hyeming@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[신년사] 권봉석 LG전자 사장 "팬덤 만들 미래 사업 체계적 준비하자"</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>"성과 일관성 있게 입증해야…질적 성장 중심으로 고도화"(서울=연합뉴스) 김영신 기자 = 권봉석 LG전자 대표이사 사장은 4일 "고객에 대한 이해를 기반으로 LG 팬덤을 만들 수 있는 미래 사업을 체계적으로 준비하자"고 밝혔다.    권 사장은 임직원에게 이메일로 전한 신년사를 통해 "성장을 통한 변화, 변화를 통한 성장을 만들어 가는 노력을 계속해야 한다"며 이같이 강조했다.    권 사장은 LG전자가 지난해 하반기 분기 최고 수준을 달성한 점을 언급하며 "성과가 일회성이 아니라 본질적 경쟁력에서 나왔다는 것을 일관성 있게 입증해야 한다"고 말했다.    그러면서 "기존 사업의 경쟁력을 높이는 가운데 고객 이해를 기반으로 LG팬덤을 만들 수 있는 미래 사업을 체계적으로 준비하고 실행 역량을 높여야 한다"며 "질적 성장 중심으로 사업 포트폴리오를 고도화해야 한다"고 설명했다.권봉석 LG전자 사장, 임직원들에게 이메일로 신년 메시지 전달(서울=연합뉴스) 권봉석 LG전자 사장이 4일 새해를 맞아 시무식을 대신해 임직원들에게 이메일로 지난해 코로나19가 가져온 전례 없는 위기에서도 임직원들이 고객가치를 실현하기 위해 치열하게 고민하고 진정성 있게 노력해준 것에 대해 감사의 인사를 전했다. 2021.1.4     [LG전자 제공. 재판매 및 DB 금지] photo@yna.co.kr    권 사장은 "전략 과제를 달성하기 위해 임직원이 일하는 방식·생각을 전환해야 한다"며 "디지털 전환은 일상적 혁신을 뛰어넘어 아날로그 영역인 고객 감성·가치를 이해하는 것이 궁극적인 목표임을 잊지 말아야 한다"고 강조했다.    권 사장은 또한 기존에 없던 혁신을 창출하기 위해서는 점진적 성장을 뛰어넘는 '파괴적 변화(Disruptive Change)'에 집중해야 한다면서, 제조업 관점에서 벗어나 세분화 전략을 토대로 상품·서비스를 과감히 개발해야 한다고 역설했다.    권 사장은 "이를 위해서는 세계적 수준의 전문 역량이 필수적이고, 임직원에게 새로운 도전을 장려하는 열린 조직 문화가 정착해야 한다"며 "저수지에 담아둔 물을 활용하는 발전소처럼 지금까지 축적한 역량을 활용하는 LG전자를 만들자"고 덧붙였다.    shiny@yna.co.kr▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크]검찰총장의 '벌금수배 해제'는 월권?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>LG전자, '한마음 동행 페스타' 진행…풍성한 혜택과 함께</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>1월31일까지 전국 온·오프라인 매장서 총 90여종'함께하면 이겨낼 수 있습니다' 슬로건[이데일리 배진솔 기자] LG전자(066570)가 새해를 맞아 이달 31일까지 ‘한마음 동행 페스타’를 진행한다.LG전자가 새해를 맞아 이달 31일까지 ‘한마음 동행 페스타’를 진행한다. 모델들이 서울 강서구에 위치한 LG베스트샵 강서본점에서 한마음 동행 페스타를 소개하고 있다. 사진 왼쪽부터 LG 오브제컬렉션 스타일러, 워시타워, 1도어 컨버터블 냉장고.(사진=LG전자)LG전자는 코로나19로 인해 힘든 시기를 보내고 있는 국민들과 함께 한마음으로 새해를 희망차게 시작하고자 “함께하면 이겨낼 수 있습니다”는 슬로건으로 이번 행사를 마련했다고 3일 밝혔다. LG전자는 전국 LG베스트샵을 포함해 온·오프라인 매장에서 한마음 동행 페스타 특별전 행사제품을 구매하는 고객들에게 폭넓은 혜택을 제공한다. 대상 제품은 △TV △냉장고 △에어컨 △워시타워 △건조기 △스타일러 △청소기 △공기청정기 △식기세척기 △전기레인지 등 15개 제품군 가운데 총 90여 종이다.LG전자는 오프라인 매장에서 77인치형 올레드 TV를 구매한 고객에게 최대 200만원 상당의 멤버십 포인트나 캐시백 혜택 등을 제공한다. 21㎏ 용량 트롬 세탁기 씽큐나 16㎏ 용량 트롬 건조기 스팀 씽큐를 구입할 경우 각각 최대 20만원 상당의 혜택을 받을 수 있다.LG전자는 공간 인테리어 가전 LG 오브제컬렉션과 건강관리가전 등 인기 가전 구입 고객들을 위한 행사도 마련했다. 오브제컬렉션 제품 중 서로 다른 품목으로 3개 이상 구매한 고객에게 구매 제품 수에 따라 최대 200만원 상당의 멤버십 포인트나 모바일상품권을 제공한다. 워시타워, 건조기, 스타일러, 식기세척기 등 트루스팀이 탑재된 건강관리 가전을 서로 다른 품목으로 4개 이상 구매 시 제휴카드로 결제하면 최대 30만원 상당의 혜택을 받는다.LG전자는 LG베스트샵이나 백화점에서 한마음 동행 페스타 특별전 행사제품을 구입 후 이벤트에 응모한 고객들 가운데 추첨을 통해 트롬 워시타워, 퓨리케어 360도 2단 공기청정기, 디오스 와인셀러 미니 등 다양한 경품도 증정한다. 상세 내용은 LG전자 홈페이지나 LG전자 멤버십 애플리케이션의 이벤트 페이지에서 확인 가능하다.김정태 한국영업본부 한국 B2C그룹장(전무)는 “어려운 시기를 보내고 있는 국민들과 함께 한마음으로 새해를 희망차게 시작하기 위해 이번 행사를 마련했다”라고 말했다.LG전자가 새해를 맞아 이달 31일까지 ‘한마음 동행 페스타’를 진행한다. 모델들이 서울 강서구에 위치한 LG베스트샵 강서본점에서 한마음 동행 페스타를 소개하고 있다. 사진 왼쪽부터 LG 오브제컬렉션 상냉장 하냉동 냉장고, 김치냉장고, 1도어 컨버터블 냉장고.(사진=LG전자)배진솔 (sincere1@edaily.co.kr)▶ #24시간 빠른 #미리보는 뉴스 #eNews+▶ 네이버에서 '이데일리 뉴스'를 만나보세요▶ 빡침해소, 청춘뉘우스 '스냅타임'＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>LG전자, ‘미니LED’ 적용한 새 프리미엄 LCD TV 공개</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>[위클리 이슈-기업][한경비즈니스=이명지 기자] LG전자가 미니LED와 독자 고색 재현 기술을 적용해 한 차원 업그레이드된 프리미엄 액정표시장치(LCD) TV 라인업을 새롭게 선보였다. LG전자는 2020년 12월 29일 온라인 기술 설명회를 열고 새 프리미엄 LCD TV를 공개했다. LG전자가 이날 공개한 신제품은 현존 LCD TV 가운데 빛과 색을 내는 각각의 기술 정점에 있는 제품이다. 먼저 LG전자는 기존 고색 재현 LCD TV인 LG 나노셀 TV 대비 진일보한 기술을 적용해 LCD TV의 성능을 대폭 업그레이드한다. 신제품은 신규 기술인 ‘퀀텀 나노셀 컬러 테크놀로지’를 적용한다. 또 LG전자는 신제품 백라이트에 기존 LCD TV 대비 광원의 크기가 10분의 1 미만 수준인 미니LED를 적용한다.mjlee@hankyung.com[본 기사는 한경비즈니스 제 1310호(2021.01.04 ~ 2021.01.10) 기사입니다.]▶ 한경비즈니스 네이버 뉴스에서 [구독 클릭]▶ 요즘 핫한 유튜버&amp;기업 다 있다! 뉴니콘 유튜브 확인▶ 잡지 정기구독 신청 ⓒ 한경비즈니스, 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>LG전자 ‘한마음 동행 페스타’ 진행</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>77형 TV 구매시 200만원 포인트모델들이 3일 LG베스트샵 서울 강서본점에서 31일까지 진행되는 ‘한마음 동행 페스타’를 소개하고 있다. 왼쪽부터 LG 오브제컬렉션 스타일러, 워시타워, 1도어 컨버터블 냉장고. LG전자 제공LG전자는 새해를 맞아 31일까지 ‘한마음 동행 페스타’를 진행한다고 3일 밝혔다.LG전자는 전국 LG베스트샵을 포함해 온·오프라인 매장에서 한마음 동행 페스타 특별전 행사제품을 구매하는 고객에게 혜택을 제공한다. 대상 제품은 TV, 냉장고, 에어컨, 워시타워, 건조기, 스타일러, 청소기, 공기청정기, 식기세척기, 전기레인지 등 15개 제품군 가운데 90여종이다.LG전자는 오프라인 매장에서 77형 올레드 TV(모델명 OLED77ZXK)를 구매한 고객에게 최대 200만원 상당의 멤버십 포인트나 캐시백 혜택 등을 제공한다. 21㎏ 용량 트롬세탁기 씽큐(모델명 F21VDD)나 16㎏ 용량 트롬건조기 스팀 씽큐(모델명 RH16VTS)를 구입할 경우 각각 최대 20만원 상당의 혜택을 받을 수 있다.공간 인테리어 가전 LG 오브제컬렉션 가운데 서로 다른 품목으로 3개 이상 구매한 고객에게 구매 제품 수에 따라 최대 200만원 상당의 멤버십 포인트나 모바일상품권을 제공한다. 워시타워, 건조기, 스타일러, 식기세척기 등 트루스팀이 탑재된 건강관리가전을 서로 다른 품목으로 4개 이상 구매 시 제휴카드로 결제하면 최대 30만원 상당의 혜택을 받는다.LG전자는 LG베스트샵이나 백화점에서 한마음 동행 페스타 특별전 행사제품을 구입한 후 이벤트에 응모한 고객 가운데 추첨을 통해 트롬 워시타워, 퓨리케어 360°2단 공기청정기, 디오스 와인셀러 미니 등 경품도 증정한다.김준엽 기자 snoopy@kmib.co.kr▶ 네이버에서 국민일보를 구독하세요(클릭)▶ 국민일보 홈페이지 바로가기GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LG전자, 새해 맞이 ‘한마음 동행 페스타’</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>이달 말까지 전국 온·오프라인 매장서 총 90여 종의 행사제품 할인LG 오브제컬렉션 구매 고객에게 최대 200만원 상당 혜택 제공LG전자가 새해를 맞아 이달 31일까지 ‘한마음 동행 페스타’를 진행한다. 모델들이 서울 강서구에 위치한 LG베스트샵 강서본점에서 한마음 동행 페스타를 소개하고 있다. 사진 왼쪽부터 LG 오브제컬렉션 스타일러, 워시타워, 1도어 컨버터블 냉장고. [LG전자 제공][헤럴드경제 정세희 기자]LG전자가 새해를 맞아 이달 31일까지 ‘한마음 동행 페스타’를 진행한다고 3일 밝혔다.LG전자는 신종 코로나 바이러스 감염증(코로나19)으로 힘든 시기를 보내고 있는 국민들과 함께 한마음으로 새해를 희망차게 시작하고자 “함께하면 이겨낼 수 있습니다!”는 슬로건 하에 이번 행사를 마련했다.LG전자에 따르면 행사는 전국 LG베스트샵을 포함해 온·오프라인 매장에서 진행된다. 행사제품 대상은 TV, 냉장고, 에어컨, 워시타워, 건조기, 스타일러, 청소기, 공기청정기, 식기세척기, 전기레인지 등 15개 제품군 가운데 총 90여 종이다.LG전자는 오프라인 매장에서 77형 올레드 TV를 구매한 고객에게 최대 200만원 상당의 멤버십 포인트나 캐시백 혜택 등을 제공한다. 21kg 용량 트롬 세탁기 씽큐나 16kg 용량 트롬 건조기 스팀 씽큐를 구입할 경우 각각 최대 20만원 상당의 혜택을 받을 수 있다.공간 인테리어 가전 LG 오브제컬렉션과 건강관리가전 등 인기 가전 구입 고객들을 위한 행사도 마련했다.오브제컬렉션 제품 중 서로 다른 품목으로 3개 이상 구매한 고객에게 구매 제품 수에 따라 최대 200만원 상당의 멤버십 포인트나 모바일상품권을 제공한다.워시타워, 건조기, 스타일러, 식기세척기 등 트루스팀이 탑재된 건강관리가전을 서로 다른 품목으로 4개 이상 구매 시 제휴카드로 결제하면 최대 30만원 상당의 혜택을 받는다.이밖에도 LG베스트샵이나 백화점에서 한마음 동행 페스타 특별전 행사제품을 구입 후 이벤트에 응모한 고객들 가운데 추첨을 통해 트롬 워시타워, 퓨리케어 360&amp;deg; 2단 공기청정기, 디오스 와인셀러 미니 등 다양한 경품도 증정한다.상세 내용은 LG전자 홈페이지나 LG전자 멤버십 애플리케이션의 이벤트 페이지에서 확인 가능하다.say@heraldcorp.com▶환경적 대화기구 '헤럴드에코'▶밀리터리 전문 콘텐츠 ‘헤밀’▶헤럴드경제 네이버 채널 구독- Copyrights ⓒ 헤럴드경제 &amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>LG전자, '전기차 기대감'에 새해 첫날 신고가</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>[머니투데이 강민수 기자] (서울=뉴스1) = LG전자는 23일 전기차 부품 사업부문 중 '그린사업' 일부를 물적분할해 'LG마그나 이파워트레인 주식회사'(LG마그나)를 설립한다고 공시했다.  분할되는 사업부문은 모터/PE(Power Electronics), 배터리 히터(battery heater), HPDM(High Power Distribution Module), PRA(Power Relay Assembly), DC 충전박스(DC Charging Box) 및 배터리/배터리팩 부품 관련 사업 등이다. (LG전자 제공) 2020.12.23/뉴스1LG전자가 전기차 시장 성장에 따른 수혜 기대감에 급등했다.4일 현재 LG전자는 전 거래일 대비 7000원(5.19%) 오른 14만2000원에 마감했다. 14만4000원까지 오르며 52주 최고가까지 경신했다.이는 전기차 시장 수혜 기대감에 따른 영향으로 풀이된다.앞서 지난달 23일 LG전자는 세계 3대 자동차 부품업체로 꼽히는 캐나다 마그나 인터내셔널과 손잡고 전기차 파워트레인 분야 합작법인을 설립하기로 했다고 밝혔다. 증권가에서는 LG전자의 모터 경쟁력에 힘입어 그간 적자였던 전기차 VS(전장부품) 사업부가 흑자전환할 것이란 기대감도 인다.최보영 교보증권 연구원은 "마그나의 영업망을 활용해 유럽향 완성차 고객 확보를 통해 시장 장악력을 확보할 것"이라며 "중장기적으로 LG 전 계열사와의 협업과 애플 전기차의 벤더 진출 기대감도 높아진다"고 전망했다.한화투자증권에 따르면 지난해 11월 전세계 전기차 판매량은 전년 동기 대비 58% 증가한 70만대를 기록했다. 이는 지난 7월 코로나19(COVID-19) 영향권에서 벗어나 성장세가 '플러스'로 전환한 후 꾸준히 이어진 것이다.강민수 기자 fullwater7@mt.co.kr▶부동산 투자는 [부릿지]▶조 변호사의 가정상담소▶줄리아 투자노트 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>공간 인테리어 가전 브랜드 'LG 오브제컬렉션' CES 출품</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>LG 오브제컬렉션[LG전자 제공. DB 및 재판매 금지]    (서울=연합뉴스) 김철선 기자 = LG전자는 이달 11일 개막하는 국제전자전시회 'CES 2021'에서 공간 인테리어 가전 브랜드 'LG 오브제컬렉션'을 글로벌 시장에 처음 선보인다고 4일 밝혔다.    LG 오브제컬렉션은 가전제품이 집안 인테리어와 조화를 이룰 수 있도록 제품의 재질과 색상을 직접 조합하는 LG전자의 프리미엄 제품군으로, 지난해 10월 국내에 출시됐다. 해외시장에서도 올해 순차적으로 출시할 예정이다.    LG전자는 이번 CES에서 LG 오브제컬렉션 온라인 체험 사이트도 운영한다.    현재 LG 오브제컬렉션은 상냉장 하냉동 냉장고와 빌트인 냉장고, 김치냉장고, 1도어 냉장·냉동·김치 컨버터블 냉장고, 식기세척기, 광파오븐, 정수기, 일체형 세탁·건조기 '워시타워', 의류관리기 '스타일러' 등 11종이다. LG 오브제컬렉션 제품군은 더 늘어날 예정이다.    LG전자 H&amp;A사업본부장 류재철 부사장은 "뛰어난 성능과 차별화된 디자인을 갖춘 LG 오브제컬렉션이 해외 고객들에게도 새로운 경험과 가치를 제공할 것"이라고 말했다.    kcs@yna.co.kr▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크]검찰총장의 '벌금수배 해제'는 월권?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>LG전자, ‘한마음 동행 페스타’ 진행…31일까지 90여 제품 할인</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>LG전자가 새해를 맞아 이달 31일까지 ‘한마음 동행 페스타’를 진행한다. 모델들이 서울 강서구에 위치한 LG베스트샵 강서본점에서 한마음 동행 페스타를 소개하고 있다. 사진 왼쪽부터 LG 오브제컬렉션 스타일러, 워시타워, 1도어 컨버터블 냉장고. LG전자 제공LG전자는 새해를 맞아 31일까지 ‘한마음 동행 페스타’를 진행한다고 3일 밝혔다.LG전자는 전국 LG베스트샵을 포함해 온·오프라인 매장에서 한마음 동행 페스타 특별전 행사제품을 구매하는 고객에게 혜택을 제공한다. 대상 제품은 TV, 냉장고, 에어컨, 워시타워, 건조기, 스타일러, 청소기, 공기청정기, 식기세척기, 전기레인지 등 15개 제품군 가운데 총 90여 종이다.LG전자는 오프라인 매장에서 77형 올레드 TV(모델명: OLED77ZXK)를 구매한 고객에게 최대 200만원 상당의 멤버십 포인트나 캐시백 혜택 등을 제공한다. 21㎏ 용량 트롬 세탁기 씽큐(모델명: F21VDD)나 16㎏ 용량 트롬 건조기 스팀 씽큐(모델명: RH16VTS)를 구입할 경우 각각 최대 20만원 상당의 혜택을 받을 수 있다.공간 인테리어 가전 LG 오브제컬렉션 제품 중 서로 다른 품목으로 3개 이상 구매한 고객에게 구매 제품 수에 따라 최대 200만원 상당의 멤버십 포인트나 모바일상품권을 제공한다. 워시타워, 건조기, 스타일러, 식기세척기 등 트루스팀이 탑재된 건강관리가전을 서로 다른 품목으로 4개 이상 구매 시 제휴카드로 결제하면 최대 30만원 상당의 혜택을 받는다.LG전자는 LG베스트샵이나 백화점에서 한마음 동행 페스타 특별전 행사제품을 구입 후 이벤트에 응모한 고객들 가운데 추첨을 통해 트롬 워시타워, 퓨리케어 360°2단 공기청정기, 디오스 와인셀러 미니 등 경품도 증정한다.LG전자가 새해를 맞아 이달 31일까지 ‘한마음 동행 페스타’를 진행한다. 모델들이 서울 강서구에 위치한 LG베스트샵 강서본점에서 한마음 동행 페스타를 소개하고 있다. 사진 왼쪽부터 LG 오브제컬렉션 상냉장 하냉동 냉장고, 김치냉장고, 1도어 컨버터블 냉장고. LG전자 제공김준엽 기자 snoopy@kmib.co.kr▶ 네이버에서 국민일보를 구독하세요(클릭)▶ 국민일보 홈페이지 바로가기GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>LG 오브제컬렉션, CES 2021서 해외 첫 선</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>[한국경제TV 양현주 기자]LG전자가 미국 현지시간 1월 11일에 개막하는  CES 2021을 통해 공간 인테리어 가전 'LG 오브제컬렉션'을 글로벌 시장에 선보인다.LG전자는 CES 2021에 맞춰 LG 오브제컬렉션 온라인 체험 사이트를 운영하겠다고 밝혔다.LG 오브제컬렉션은 집안 전체의 인테리어 톤과 조화를 이루도록 고객들이 다양한 재질과 색상을 직접 조합할 수 있다.LG전자는 밀레니얼, X세대, 베이비부머 등 다양한 세대가 선택할 수 있는 색상 선정을 위해 세계적인 색채연구소인 미국 팬톤컬러연구소와 오랜 기간 협업했다.인테리어에 맞춰 선택할 수 있도록 소재도 프리미엄 가구에 주로 쓰이는 페닉스를 비롯해 스테인리스, 글라스, 메탈 등 다양한 재질을 선정했다.LG전자는 지난해 10월 상냉장 하냉동 냉장고, 빌트인 타입 냉장고, 김치 냉장고, 1도어 냉장·냉동·김치 컨버터블 냉장고, 식기세척기, 광파오븐, 정수기, 워시타워, 스타일러 등 생활가전 전반에 걸쳐 LG 오브제컬렉션 신제품 11종을 출시한 바 있다.LG 오브제컬렉션 제품군은 더 늘어날 예정이다.LG전자 H&amp;A사업본부장 류재철 부사장은 "LG 생활가전의 뛰어난 성능은 물론이고 공간과 조화를 이루는 차별화된 디자인까지 갖춘 LG 오브제컬렉션이 해외 고객들에게도 새로운 경험과 가치를 제공하게 될 것"이라고 말했다.양현주기자 hjyang@wowtv.co.kr▶ 네이버 홈에서 [한국경제TV] 채널 구독하기 [생방송보기]▶ 대한민국 재테크 총집결! - [증권 / 주식상담 / 부동산]ⓒ 한국경제TV, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>LG 오브제컬렉션,  CES 2021서 해외 첫 선</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>LG전자가 세계 최대의 IT·가전 전시회 ‘CES 2021’에서 선보일 LG 오브제컬렉션.LG전자 제공LG전자는 미국 현지시간으로 11일에 개막하는 세계 최대의 IT·가전 전시회 ‘CES 2021’을 통해 공간 인테리어 가전 ‘LG 오브제컬렉션’을 글로벌 시장에 처음으로 선보인다고 4일 밝혔다.LG전자는 집 전체의 공간 인테리어를 완성하는 LG 오브제컬렉션의 가치를 고객들이 직접 경험할 수 있도록 온라인 체험 사이트를 운영한다. LG 오브제컬렉션은 주방, 거실, 세탁실 등 집안 곳곳에서 사용하는 여러 가전들을 조화롭고 일체감 있는 디자인으로 구현해 제품을 더할수록 집안의 인테리어를 완성해준다.LG전자는 국내에서 인기몰이 중인 LG 오브제컬렉션을 해외시장에도 올해 순차적으로 출시할 계획이다.LG 오브제컬렉션은 집안 전체의 인테리어 톤과 조화를 이루도록 고객들이 다양한 재질과 색상을 직접 조합할 수 있다.LG전자는 밀레니얼, X세대, 베이비부머 등 다양한 세대가 선택할 수 있는 색상 선정을 위해 세계적인 색채연구소인 미국 팬톤컬러연구소와 오랜 기간 협업했다. 인테리어에 맞춰 선택할 수 있도록 소재도 프리미엄 가구에 주로 쓰이는 페닉스를 비롯해 스테인리스, 글라스, 메탈 등 다양한 재질을 선정했다.또 LG 오브제컬렉션은 살균, 탈취, 세척, 의류의 주름 완화 등에 효과가 뛰어난 트루스팀, 냉장고 문을 열지 않고도 보관중인 음식물의 종류와 양을 쉽게 확인할 수 있는 노크온 매직스페이스 등 LG 프리미엄 가전의 차별화된 기술은 그대로 계승했다.LG전자는 지난해 10월 상냉장 하냉동 냉장고, 빌트인 타입 냉장고, 김치 냉장고, 1도어 냉장·냉동·김치 컨버터블 냉장고, 식기세척기, 광파오븐, 정수기, 워시타워, 스타일러 등 생활가전 전반에 걸쳐 LG 오브제컬렉션 신제품 11종을 출시했다. LG 오브제컬렉션 제품군은 더 늘어날 예정이다.LG전자는 지난 2016년 공간에 가치를 더하는 초프리미엄 빌트인 ‘시그니처 키친 스위트’와 초프리미엄 가전 ‘LG 시그니처’, 2018년 가전과 가구를 결합한 공간맞춤가전 ‘LG 오브제’, 2020년 하나씩 더할수록 집안 인테리어가 완성되는 공간 인테리어 가전 LG 오브제컬렉션을 잇따라 선보이며 글로벌 생활가전 트렌드인 공간가전을 이끌고 있다.LG전자 류재철 H＆A사업본부장(부사장)은 “LG 생활가전의 뛰어난 성능은 물론이고 공간과 조화를 이루는 차별화된 디자인까지 갖춘 LG 오브제컬렉션이 해외 고객들에게도 새로운 경험과 가치를 제공하게 될 것”이라고 말했다.배동진 기자 djbae@busan.com▶ 네이버에서 부산일보 구독하기 클릭!▶ '터치 부산' 앱 출시, 부산일보 지면을 내 손 안에!▶ 부산일보 홈 바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>내 맘대로 꾸미는 LG오브제컬렉션, 해외 첫선</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>[머니투데이 심재현 기자] 사진 왼쪽부터 LG 오브제컬렉션 상냉장 하냉동 냉장고, 1도어 컨버터블 냉장고. /사진제공=LG전자LG전자는 오는 11일 개막하는 세계 최대 전자전시회 'CES 2021'에서 공간 인테리어 가전 브랜드 'LG 오브제컬렉션'을 글로벌 시장에 처음 선보인다고 4일 밝혔다.LG 오브제컬렉션은 가전제품이 집안 인테리어와 조화를 이룰 수 있도록 제품의 재질과 색상을 직접 조합하는 LG전자의 프리미엄 제품군이다. 국내에서 지난해 10월 출시한 뒤 해외시장에도 올해 순차적으로 선보일 예정이다.LG전자는 이번 CES에서 LG 오브제컬렉션 온라인 체험 사이트도 운영한다.LG 오브제컬렉션은 상냉장 하냉동 냉장고와 빌트인 냉장고, 김치냉장고, 1도어 냉장·냉동·김치 컨버터블 냉장고, 식기세척기, 광파오븐, 정수기, 일체형 세탁·건조기 '워시타워', 의류관리기 '스타일러' 등 11종이다.류재철 LG전자 H&amp;A사업본부장(부사장)은 "뛰어난 성능과 차별화된 디자인을 갖춘 LG 오브제컬렉션이 해외 고객들에게도 새로운 경험과 가치를 제공할 것"이라고 말했다.심재현 기자 urme@mt.co.kr▶부동산 투자는 [부릿지]▶조 변호사의 가정상담소▶줄리아 투자노트 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>5Gㆍ롤러블로 美 겨냥하는 LG전자</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>11일 CES에서 롤러블 폰 맛보기 공개2018년 이후 점유율 최고치 달성 전망LG 롤러블(가칭) 렌더링 이미지(출처=레츠고디지털)[아시아경제 한진주 기자] LG전자가 올해 북미 지역 점유율 끌어올리기에 나선다. 롤러블 폰과 플래그십·중저가 5G 스마트폰 라인업으로 스마트폰 최대 매출 시장인 북미 공략을 확대한다.4일 시장조사기관 스트래티지 애널리틱스에 따르면 LG전자의 올해 시장점유율은 14.3%로 2018년 4분기 이후 최고치를 달성할 것으로 전망된다. LG전자는 지난해 5G 서비스가 시작되는 미국 시장에 V60 씽큐, 벨벳, 윙 등을 순차 출시했고 중저가폰 K 시리즈, 스타일러스 시리즈 등으로 다양한 가격대의 5G 스마트폰 라인업을 완성했다. 올해는 폴더블 폰에 대적할 롤러블 스마트폰과 플래그십 라인업까지 추가해 북미 시장에서 확고한 3위 자리를 지키면서 매출 확대까지 노린다. 가장 관심을 끄는 'LG 롤러블(가칭)'은 오는 11일 개최되는 CES에서 먼저 공개될 예정이다. 오포가 지난해 먼저 롤러블 폰 콘셉트를 공개했으나 상용화된 롤러블 폰 출시는 LG전자가 앞설 것으로 보인다.LG 롤러블은 6.8인치에서 7.4인치까지 화면이 확장 가능한 디스플레이를 탑재한다. 사용 용도에 따라 화면비율이 바뀌면서 통화 모드, 비디오 모드, 생산성 모드 등을 선택해 쓸 수 있는 것으로 알려졌다. 스마트폰 이용자들 사이에서 대화면 스마트폰 선호도가 높아지고 있다는 점도 롤러블 등 새 폼팩터 스마트폰 시장의 성장 기대감을 뒷받침해주고 있다. SA에 따르면 2020년 글로벌 스마트폰 시장서 6인치 이상 스마트폰의 비중이 73.8%를 차지해 사상 처음으로 70%를 넘어섰다. OTT 등으로 동영상 콘텐츠 소비량이 늘고 검색·SNS 등 멀티태스킹 수요가 늘어난 영향이다. 바 타입 스마트폰 중에서는 디자인에 강점을 둔 플래그십 폰 'LG 레인보우(가칭)'도 1분기 공개를 앞두고 있다. LG전자는 플래그십 제품을 혁신 폼팩터의 '익스플로러 프로젝트'와 바 타입 스마트폰 '유니버셜 라인' 두 라인으로 나눠 운영한다. 중저가 폰은 K시리즈, 스타일로 7 등 멀티 카메라·대용량 배터리를 내세운 제품을 출시하고 ODM 생산 비중을 늘려 원가를 절감하는 전략을 이어갈 예정이다. 한편 LG전자는 지난해 5월 MC사업본부의 해외영업그룹장으로 미국 스마트폰 시장에 정통한  정수헌 부사장을 영입했다. 북미 지역은 LG전자의 스마트폰 매출 60% 이상을 내는 주요 시장인만큼 해외 영업을 강화하려는 의도가 반영돼있다. 정 부사장은 스프린트 재직 당시, 미국 내 핵심 지역인 캘리포니아와 네바다 지역 대표를 역임해 현지 사정에 정통하다. 특히 캘리포니아는 애플 등 실리콘밸리의 ICT 빅테크 기업들이 모여있고 뉴욕과 함께 미국에서 가장 중요한 시장으로 꼽힌다.한진주 기자 truepearl@asiae.co.kr▶ 2021년 신축년(辛丑年) 신년운세와 토정비결은?▶ 발 빠른 최신 뉴스, 네이버 메인에서 바로 보기▶ 2021 소비자대상 설문 참여하면 경품 추첨!&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="60" customWidth="1" min="1" max="1"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="60" customWidth="1" min="1" max="1"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="60" customWidth="1" min="1" max="1"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LG전자, 바이러스·세균 잡는 '퓨리케어 공기청정기' 출시</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>항바이러스·항균 효과 있는 트루 토탈케어 필터, 최초 적용LG전자(066570)가 바이러스와 세균을 99.9% 제거하는 ‘퓨리케어 360° 공기청정기 플러스’를 5일 출시했다.LG전자는 건강·위생관리에 대한 소비자 관심이 높아지는 가운데 항바이러스·항균 효과가 있는 트루 토탈케어 필터를 이번 신제품에 처음 적용했다. LG전자 ‘퓨리케어 360° 공기청정기 플러스’. /LG전자서울대학교 보건대학원과 공동으로 시험한 결과 이 필터는 쥐코로나바이러스(murine coronavirus, MuCoV)를 99.9% 제거한다. 쥐코로나는 최근 코로나19와는 다른 코로나 바이러스의 일종이다.또 한국화학융합시험연구원(KTR)이 실험한 결과 이 필터는 황색포도상구균, 폐렴간균, 대장균을 99.9% 없애주는 것을 확인했다고 회사 측은 밝혔다. 신제품은 기존 모델의 뛰어난 공기청정 성능은 그대로 계승했다. 이 제품은 0.01㎛(마이크로미터, 1㎛는 1백만분의 1m) 크기의 극초미세먼지를 제거한다. 한국천식알레르기협회(KAF)와 영국알레르기협회(BAF)로부터 인증도 획득했다. 또 암모니아, 포름알데히드, 톨루엔, 아세트산, 아세트알데히드 등 생활냄새와 유해가스를 없애준다.제품 상단의 클린부스터는 LG만의 독자적인 기술력이 집약돼 관련 특허만 34개다. 클린부스터를 사용하지 않을 때 보다 최대 24% 빠르게 실내 공기를 정화한다.이 제품의 360° 디자인은 여러 방향에서 공기를 흡입하고 청정할 수 있어 공기를 정화하지 못하는 사각지대가 줄어든다.LG전자는 항균 필터가 적용된 퓨리케어 360° 공기청정기 펫 플러스도 함께 선보인다. 반려동물을 키우는 소비자를 위해 기존 퓨리케어 360° 공기청정기 모델 대비 탈취 성능은 물론 털·먼지 제거 성능이 강화된 제품이다.신제품은 청정면적이 30형 모델(모델명 AS301DWFA), 30형 펫 모델(모델명 AS301DNPA, AS301DRPA), 19형 모델(모델명 AS191DWFA), 19형 펫 모델(모델명 AS191DNPA, AS191DRPA)이다. 출하가는 모델에 따라 99만9000원~156만9000원이다.[장우정 기자 woo@chosunbiz.com] ▶네이버에서 '명품 경제뉴스' 조선비즈를 구독하세요▶[단독] 우리은행, 라임펀드 돌려막기 시도… 他 금융사 유인전략 논의▶新기술 '고도화' 경쟁… 자율주행차·플라잉카 상용화 성큼	저작권자 ⓒ 조선비즈, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>"혁신 멈추지 않을 것" LG전자, 'CES 2021' 앞두고 티저 공개</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>20분 분량의 메니페스토 영상 게시'소중한 일상은 계속' 주제로 참가LG전자 CES 2021 티저 영상 /LG전자 유튜브 채널 캡처[서울경제] LG전자가 오는 11일 온라인 개막하는 세계 최대 전자·IT 전시회인 ‘CES 2021’을 일주일 앞두고 티저(teaser·호기심을 자아내는 사전 광고)를 5일 공개했다.LG전자 글로벌 유튜브를 통해 공개된 20초 분량의 메니페스토 영상은 ‘삶은 계속된다(Life is ON Manifesto)’는 제목으로 이번 CES 2021 주제와 LG전자의 철학을 담았다.‘소중한 일상은 계속됩니다. LG와 함께 편안한 홈 라이프를 누리세요’라는 주제로 CES 2021에 참가하는 LG전자는 티저 영상에서 ‘혁신’을 강조했다. 이 영상에서 LG전자는 “세상은 우리가 상상할 수 없던 방식으로 변해왔다”며 “하지만 LG는 혁신을 멈추지 않을 것”이라고 밝혔다. 그러면서 “당신에게 더 많은 편리함과 더 많은 즐거움, 당신을 안전하게 할 수 있는 방법들을 선사할 것”이라고 덧붙였다. LG전자는 티저에 더해 CES 2021 전용 홈페이지에서도 CES에서 선보일 다양한 콘텐츠를 예고하는 이미지들을 공개했다./전희윤기자 heeyoun@sedaily.com▶ 엄마 기자 취재수첩 [서지혜의 건강한 육아]▶ 中투자 알짜정보만 쏙쏙  [니하오 중국증시]▶ 네이버 채널에서 '서울경제' 구독해주세요!저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>권봉석 LG전자 CEO "LG팬덤 만드는 파괴적인 변화에 집중"</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>권봉석 LG전자 최고경영자(CEO) 사장이 4일 새해를 맞아 시무식을 대신해 임직원에게 이메일로 신년 메시지를 전했다.권봉석 사장은 지난해 코로나19가 가져온 전례 없는 위기에서도 임직원이 고객가치를 실현하기 위해 치열하게 고민하고 진정성 있게 노력해준 것에 대해 감사의 인사를 전했다.권 사장은 “임직원의 열정과 우수한 역량 덕분에 LG전자가 글로벌 시장에서 고객으로부터 신뢰받는 브랜드로 인정받는 가운데 하반기에는 분기 최고 수준 실적을 달성하며 성장성과 수익성을 높일 수 있었다”고 말했다.그는 올해의 전략 과제와 관련해 “고객가치를 기반으로 '성장을 통한 변화, 변화를 통한 성장'을 만들어가는 노력은 계속돼야 한다”면서 “지난해 성과가 일회성이 아니라 우리의 본질적 경쟁력에 기반한 것임을 입증하는 경영 성과를 일관성 있게 내야 한다”고 강조했다.이어 기존 사업의 경쟁력을 높이는 가운데 고객에 대한 이해를 기반으로 'LG팬덤'을 만들 수 있는 미래 사업을 체계적으로 준비하고 실행역량을 높여 질적 성장 중심의 사업 포트폴리오를 고도화해야 한다고 덧붙였다.권 사장은 “전략 과제를 달성하기 위해 임직원이 일하는 방식과 생각을 전환하는 것이 매우 중요하다”며 “디지털 기술에 기반한 디지털 전환은 일상적 혁신을 뛰어넘어 아날로그 영역인 고객의 감성과 고객의 가치를 이해하는 것이 궁극적인 목표임을 잊지 말아야 한다”고 강조했다. 그는 기존에 없던 혁신을 창출하기 위해 X+α를 통해 Super X를 만드는 '점진적 성장'을 뛰어넘어 X+α를 통해 Y를 만드는 '파괴적인 변화'에 집중해야 한다고 말했다. 표준화, 공용화, 모듈화에 중점을 둔 제조업 관점에서 벗어나 세분화 전략을 토대로 고객 관점 상품과 서비스를 과감하게 개발하는 시도가 이뤄져야 한다는 것을 의미한다고 설명했다.그는 이를 위해 세계적 수준의 전문 역량 육성과 확보가 필수적이며 임직원에게 새로운 도전을 장려하는 열린 조직문화가 정착돼야 한다고 말했다.끝으로 권 사장은 “단순히 물을 담아 두면 저수지에 그치지만 그 물을 활용하면 발전소가 된다”며 “지금까지 축적해온 역량을 활용해 발전소와 같은 LG전자를 만들어 가자”고 당부했다.박소라기자 srpark@etnews.com▶ “2021년, 꼭 알아야할 클라우드 기술과 비즈니스” 21일 방송▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>삼성·LG전자, 4분기도 나란히 호실적 낼 듯…'반도체·가전 덕'</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>삼성전자, 4분기 영업이익 9조원 돌파 전망LG전자, 신가전 덕에 '상고하저' 전통 깰 듯[서울=뉴시스] 고은결 기자 = 삼성전자와 LG전자가 지난해 4분기 신종 코로나바이러스 감염증(코로나19) 사태 속에서도 반도체, 가전 등 주요 제품 판매 호조에 힘입어 1년 전보다 성장한 실적을 달성한 것으로 추정된다. 다만 코로나19 펜트업(pent up·억눌린) 수요와 '집콕' 수요 증가로 가전 사업이 크게 선전한 지난해 3분기보다는 주춤한 실적을 낸 것으로 분석된다. 삼성전자, LG전자는 오는 8일 전후로 2020년 4분기 잠정 실적을 공시할 예정이다. 양사의 확정 실적은 이달 말 발표된다.삼성전자 4분기 영업익 9조 넘기며 선방할 듯삼성전자는 지난해 3분기 영업이익이 2년 만에 10조원대를 탈환한 데 이어, 4분기 영업이익도 9조원을 돌파하며 선전할 것으로 보인다.5일 금융정보업체 와이즈리포트에 따르면 삼성전자의 2020년 4분기 실적 전망치(2020년 12월30일 기준)는 매출 61조8949억원, 영업이익 9조7440억원이다. 지난해 동기 대비 매출액은 3.3%, 영업이익은 약 36% 증가한 수준이다.다만 세트와 부품이 고르게 호실적을 내며 역대 최대 분기 실적을 기록한 전분기와 비교하면 매출은 약 5조원, 영업이익은 약 2조6000억원 줄어든 수준이다. 연간으로는 매출 237조1630억원, 영업이익 36조6852억원의 실적을 달성할 것으로 관측된다.삼성전자의 4분기 실적은 반도체 사업이 주도한 것으로 풀이된다. 시장에서는 4분기 디바이스솔루션(DS) 부문의 영업이익을 4조1000억~4조5000억원 수준으로 전망하고 있다. 이는 전년 동기(3조4500억원) 대비 약 7000억~1조원 늘었지만, 미국의 화웨이 제재로 때아닌 특수를 누린 전분기(5조5400억원)보다 1조원 이상 줄어든 수준이다.연말 노트북 수요 증가로 메모리 출하량이 견조했고 4분기 중 메모리 가격 하락세가 멈췄지만, 달러 약세 영향 등으로 전분기보다 수익성이 주춤했을 것이라는 분석이다.같은 기간 스마트폰을 담당하는 IT·모바일(IM) 부문은 지난해와 비슷한 2조4000억~2조6000억원 수준의 영업이익을 기록할 것으로 예상된다. 유럽의 락다운(봉쇄령), 마케팅 비용 증가 등 영향으로 성수기인 전분기 영업이익(4조5000억원)보다는 2조원가량 줄어든 수준이다.TV와 생활가전 사업을 담당하는 소비자가전(CE) 부문 영업이익은 지난해 동기(8100억원)와 비슷한 8000억~1조2000억원 수준으로 점쳐진다. 펜트업 수요를 톡톡히 누린 3분기보다는 주춤하지만 유럽 락다운에 따른 판매량 감소, 패널가 상승 등을 감안하면 선방한 것으로 풀이된다.LG전자, 가전 선전에 '상고하저' 징크스 깰 듯LG전자도 신가전을 내세워 지난해 3분기에 이어 4분기 호실적을 낼 전망이다. 이에 따라 상반기 실적이 더 좋고 하반기 실적은 부진하다는 뜻의 '상고하저' 징크스를 깨고, 사상 처음으로 연간 영업이익이 3조원을 돌파할 수 있단 기대감이 나온다.와이즈리포트에 따르면 LG전자의 2020년 4분기 실적 전망치(2020년 12월30일 기준)는 매출 17조8603억원, 영업이익 6198억원이다. 매출은 전년 동기 대비 11.2%, 영업이익은 508% 증가한 수준이다. 2020년 연간 매출 62조6262억원, 영업이익 3조2058억원으로 예상된다.LG전자의 4분기 실적은 보통 연말 소비 시즌이 다가오며 프로모션 확대로 손익이 악화됐다. 그러나 올해는 코로나19로 인해 가전과 TV의 온라인 판매 비중 증가 등에 힘입어 수익성이 개선될 것으로 보인다. 특히 스타일러, 건조기, 식기세척기 등 신가전의 인기와 유기발광다이오드(OLED) TV 판매 증가 등이 실적을 견인한 것으로 분석된다.적자가 이어지고 있는 스마트폰 사업도 북미, 중남미 지역에서 보급형 제품 매출이 늘어 손실폭이 줄 것으로 점쳐진다. 전장 부문 또한 유럽, 북미 등 선진시장의 회복으로 매출이 늘어 적자폭을 좁힐 전망이다.국내 전자업계 '투톱' 삼성·LG전자, 새해도 호실적 전망시장에서는 국내 전자업계 '쌍두마차'인 삼성전자와 LG전자가 올해도 호실적을 이어갈 것으로 보고 있다.삼성전자 1분기 실적은 프리미엄 스마트폰 갤럭시S21의 조기 출시와 D램 가격 상승에 힘입어 전분기 대비 개선될 것으로 관측된다. 특히 올해 메모리반도체의 슈퍼 사이클이 3년 만에 다시 올 것으로 예상된다는 점에서 D램 전 부문의 수요 증가가 기대된다. 비메모리 부문도 신규 고객사 물량 확대 등에 힘입어 수익성이 개선될 것으로 예상된다.송명섭 하이투자증권 연구원은 "2년간에 걸친 메모리 반도체 투자의 부진과 반도체 업체들의 낮은 재고 수준은 2021년 실적에서 D램, 낸드 수급의 개선을 이끌 것"으로 전망했다. 박유악 키움증권 연구원은 "비메모리 부문은 신규 고객사 물량 확대와 고객사 신제품 출시 영향으로 인해 전분기 대비 수익성 개선을 이룰 것"으로 기대했다.LG전자는 올해도 프리미엄 가전과 TV의 판매 성과가 이어지는 가운데, 세계적 자동차 부품 업체 마그나 인터내셔널과 합작법인 설립에 나서며 전장사업 부문의 적자폭이 줄 것으로 보인다. 노경탁 유진투자증권 연구원은 "마그나와의 합작법인 설립으로 LG전자 모터·인버터의 경쟁력이 강화되며, 고객사 다변화 등 높은 진입장벽을 가진 파워트레인 시장 내 점유율이 빠르게 증가할 수 있다"고 설명했다.권성률 DB금융투자 연구원은 "H&amp;A(가전), HE(TV) 부문이 2020년 같은 특수가 없다는 가정 하에도 좋은 수익성 유지가 가능하고, VS(전장)와 MC(모바일) 부문 적자 축소 규모가 4000억원이 넘을 것"으로 봤다.☞공감언론 뉴시스 keg@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>바이러스와 세균 99.9% 제거…LG전자 퓨리케어 360° 플러스 출시</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>모델들이 LG 퓨리케어 360° 공기청정기 플러스(사진 왼쪽)와 LG 퓨리케어 360° 공기청정기 펫 플러스를 소개하고 있다.(LG전자 제공)2021.01.05/뉴스1 © 뉴스1(서울=뉴스1) 권구용 기자 = LG전자가 5일 바이러스와 세균을 99.9% 제거하는 '퓨리케어 360° 공기청정기 플러스'를 출시했다.LG전자는 건강과 위생관리에 대한 관심이 높아지면서 항바이러스·항균 효과가 있는 트루 토탈케어 필터를 이번 신제품에 처음 적용했다. LG전자가 밝힌 서울대학교 보건대학원과 공동으로 시험한 결과에 따르면 이 필터는 쥐코로나바이러스를 99.9% 제거한다. 또 한국화학융합시험연구원(KTR)이 실험한 결과 이 필터가 황색포도상구균, 폐렴간균, 대장균을 99.9% 없애준다.신제품은 기존 모델의 공기청정 성능은 그대로 계승했다. 이 제품은0.01㎛(마이크로미터, 1㎛는 1백만 분의 1m) 크기의 극초미세먼지까지 제거한다. 한국천식알레르기협회(KAF)와 영국알레르기협회(BAF)로부터 인증도 획득했다. 또 암모니아, 포름알데히드, 톨루엔, 아세트산, 아세트알데히드 등 생활냄새와 유해가스를 없애준다.제품 상단의 클린부스터는 LG만의 독자적인 기술력이 집약돼 관련 특허만 34개다. 클린부스터를 사용하지 않을 때 보다 최대 24% 빠르게 실내 공기를 정화한다.이 제품의 360° 디자인은 여러 방향에서 공기를 흡입하고 청정할 수 있어 공기를 정화하지 못하는 사각지대가 줄어든다.LG전자는 항균 필터가 적용된 퓨리케어 360° 공기청정기 펫 플러스도 함께 선보인다. 이 제품은 반려동물을 키우는 고객을 위해 기존 퓨리케어 360° 공기청정기 모델 대비 탈취 성능은 물론 털·먼지 제거 성능을 강화했다.LG전자는 신제품 출시를 기념해 '우리집 맞춤 안심청정패키지' 모델을 구매한 고객에게 할인 혜택을 제공한다. 예를 들어 32평형(약105㎡) 이상인 공간에서 생활하는 4인 가구 고객들을 위해 퓨리케어 360° 공기청정기 플러스 2단 모델, 퓨리케어 360° 공기청정기 플러스 1단 모델, 퓨리케어 공기청정기 모델, 퓨리케어 미니 공기청정기 모델을 하나의 패키지로 구성했다. 이 패키지를 구매하는 고객은 최대 39만원 상당의 캐시백을 받는다.이재성 LG전자 H&amp;A사업본부 에어솔루션사업부장 부사장은 "건강과 위생에 대한 고객들의 관심이 높아지는 가운데 항바이러스·항균 필터를 갖춘 퓨리케어 360° 공기청정기 플러스를 앞세워 프리미엄 시장을 선도할 것"이라고 강조했다.inubica@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1&amp;BBC 한글 뉴스 ▶  터닝포인트 2021 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>"당분간 LG 냉장고, 노트북, 스마트폰 구입 멈춰달라"</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>LG트윈타워 청소노동자 집단해고 공대위, LG 제품 불매 운동 돌입[김종훈, 유성호 기자]        ▲  고용승계와 처우개선, 노조활동 등을 요구하다가 집단해고된 LG트윈타워 청소노동자들이 4일 오전 서울 여의도 LG트윈타워 로비에서 해고 철회를 요구하고 있다.            ⓒ 유성호                 ▲  LG트윈타워 청소노동자 집단해고 사태해결을 위한 노동시민사회단체 공동대책위원회 회원들이 4일 오전 서울 여의도 LG트윈타워를 방문해 로비에서 농성중인 LG트윈타워 청소노동자를 응원하고 있다.            ⓒ 유성호   "이제는 괜찮다."지난 12월 31일부로 해고된 'LG트윈타워' 청소노동자 박소영씨가 4일 오후 &lt;오마이뉴스&gt;와의 통화에서 "아픈 곳은 없냐"라는 질문에 "까마귀 떼 같던 용역들이 많이 없어졌다"면서 한 말이다. 그는 "다시 전기도 들어오고 난방도 된다"면서 "많은 시민들과 언론에서 우리한테 관심 가져주시고 응원해준 덕분"이라고 고마워했다.박소영씨와 동료들은 집단해고 사태에 반발해 지난달 16일부터 LG트윈타워 로비에 농성장을 꾸린 채 고용승계 등을 요구하며 파업에 돌입했다. 그러나 새해 첫날인 1일 오후가 되자 농성장 전기와 난방이 예고 없이 중단됐다. 농성장으로 전달되던 도시락 반입도 건물을 봉쇄한 용역들에 의해 차단했다.관련 소식이 SNS에 퍼지자 시민들은 서울 여의도 LG트윈타워 앞에 자발적으로 모여들었다. 시민들이 다시 한번 도시락 반입을 시도하는 과정에서 이를 차단하려는 용역들과 몸싸움이 일기도 했다.2일 장혜영 정의당 의원과 강민정 열린민주당 의원 등이 현장을 찾아 '도시락 반입' 등을 요구하며 파업 노동자들을 응원했다. 끊겼던 전기와 난방은 2일 오후 1시께부터 공급되기 시작했고 도시락 반입도 다시 허용됐다.2019년 10월, LG트윈타워 청소노동자들은 관리자 갑질 및 근무시간 꺾기 등을 이유로 노동조합을 결성했다. 이후 사측과 교섭하며 관행으로 여겨지던 토요일 공짜노동 등이 사라졌다. 하지만 처우개선과 정년연장 등을 요구하자 교섭이 교착됐다.결국 LG트윈타워 건물을 관리하는 LG그룹 계열사 '에스엔아이코퍼레이션'은 지난해를 끝으로 박씨 등 청소노동자들이 소속된 하청업체 '지수아이앤씨'와 계약을 종료했다. 노동자들이 소속된 업체를 바꿈으로써 사실상 해고 통보를 한 것이다.공공운수노조에 따르면 노동자들이 소속됐던 지수아이앤씨는 구광모 LG그룹 회장의 고모인 구미정씨와 구훤미씨가 각각 50%씩 지분을 나눠 소유한 회사다. 두 사람은 이 회사를 통해 연간 50~60억 원에 달하는 배당금을 받아 간 것으로 전해지고 있다."청소노동자 쫓아내면 LG 제품도 쫓겨난다"              ▲  노동시민사회단체 관계자들이 4일 오전 서울 여의도 LG트윈타워 앞에서 기자회견을 열어 LG트윈타워 청소노동자 집단해고 사태를 규탄하며 LG 제품에 대한 불매운동을 선언했다.이날 이들은 “청소노동자라고 무시당하지 않고 사람대접을 받기 위해 노조에 가입했지만 돌아온 것은 집단해고로 쫓겨났다”며 “청소노동자들의 고용 승계가 보장되고 노동조합의 요구안이 관철될 때까지 LG 제품을 불매하겠다”고 말했다.            ⓒ 유성호            ▲ “청소노동자 쫓어내는 LG, LG 제품 불매합니다”              ⓒ 유성호           'LG트윈타워 청소노동자 집단해고 사태 해결을 위한 노동시민사회단체 공동대책위원회(공대위)'는 4일 트윈타워 앞에서 기자회견을 열고 LG 제품 불매 운동 돌입을 선언했다.공대위는 "지난 한 달 집단해고 사태를 해결하고자 계속해서 LG 측과 대화 시도를 해왔지만, LG는 어떠한 대화나 답변조차 거부하며 새해부터 농성장에 음식과 전기를 끊었다"면서 "LG에 대한 사회적 압력 없이 문제 해결이 불가능하다고 보고 불매 운동을 시작한다. '고용승계' 한마디로 해결될 문제를 불매운동까지 이르게 한 책임은 LG에 있다"라고 밝혔다.이날 공대위가 불매를 선언한 상품은 청소노동자들의 지주회사인 (주)LG가 30% 이상 지분을 가진 LG전자, LG생활건강, LG유플러스의 제품들이다.공대위는 "LG트윈타워 청소노동자들이 제자리에 돌아갈 수 있을 때까지 당분간 LG생활건강에서 만든 엘라스틴, 페리오, 샤프란, 데페이샵을 비롯해 LG전자의 TV, 냉장고, LG그램 노트북, LG스마트폰의 구입을 청소노동자들이 돌아갈 때까지 멈춰달라"고 호소했다.이런 가운데 구광모 LG대표는 4일 직원들에게 보낸 영상 신년사를 통해 "사람들의 생활방식이 더욱 개인화되고 소비 패턴도 훨씬 빠르게 변하면서 고객 안에 숨겨진 마음을 읽는 것이 더욱 중요해졌다"면서 "이제는 고객을 더 세밀히 이해하고 마음  속 열망을 찾아, 이것을 현실로 만들어 고객 감동을 키워갈 때"라고 강조했다.이어 구 대표는 "고객을 촘촘히 쪼개서 보며 그렇게 세분화된 고객별로 각각의 니즈를 깊고 구체적으로 파악하고, 평범하고 보편적인 니즈가 아니라 고객을 완벽하게 만족시킬 수 있는 니즈를 찾아야 한다. 고객의 삶에 더 깊이 공감해야 한다"라고 말했다.              ▲  노동시민사회단체 관계자들이 4일 오전 서울 여의도 LG트윈타워 앞에서 기자회견을 열어 LG트윈타워 청소노동자 집단해고 사태를 규탄하며 LG 제품에 대한 불매운동을 선언했다.            ⓒ 유성호   LG트윈타워 건물을 관리하는 에스엔아이코퍼레이션 측은 4일 오후 &lt;오마이뉴스&gt;와의 통화에서 "고용승계를 위해 최대한 노력한다는 입장은 변함이 없다"면서 "내부 검토를 하고 있다"라고 밝혔다.그러면서 에스앤아이코퍼레이션 측은 "1일부로 양태가 달라졌다. 그전까진 계약 해지 이전에 농성을 한 것이라면 지금은 계약 해지 후 농성을 하는 것"이라면서 "내부적으로 어떻게 할지에 대해 다양한 방면으로 고민 중"이라고 덧붙였다. 하지만 '국회를 비롯해 시민들이 자발적으로 연대하고 있는 것을 아느냐'라는 질문에 대해선 "알고 있다"면서 "뭔가 액션이 일지 않겠냐"라는 두루뭉술한 답변만 남겼다.지난달 30일 더불어민주당 을지로위원회 소속 우원식·박홍근·박영순·이동주 의원 등은 트윈타워 농성장을 찾아 "고용 승계가 이뤄지지 않은 상황에 대해 납득할 수 없다"면서 "LG기업이 사회적 책임을 다해야 한다"라고 요구했다. 다음날인 31일에는 긴급 논평을 내고 "민주당 을지로위는 집단해고로 갈 곳 잃은 청소노동자들이 다시 일터로 돌아갈 수 있도록 노동자들과 함께 연대하며 싸울 것"이라고 밝혔다.한편 청소노동자들의 상황이 알려지자 시민들의 연대 움직임 역시 이어졌다. 트위터를 중심으로 일어난 '밥 한 끼 연대' 운동에 3000여 명이 넘는 시민들이 참여해 4500만 원 가량의 성금이 쌓였다.지난 22일 청와대 국민청원 게시판에 올라온 'LG(LG트윈타워) 건물미화관리 80명 부당집단해고 말도 안 되는 현실 도와주세요'라는 제목의 국민청원에는 4일 오후 3시 기준 2만2000명에 육박하는 시민들이 동의 의사를 밝혔다.              ⓒ 유성호     저작권자(c) 오마이뉴스(시민기자), 무단 전재 및 재배포 금지▶오마이뉴스 '시리즈'에서 연재하세요!▶교사·학부모 필독서 《삶을 위한 수업》▶오마이뉴스 취재 후원하기</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>렌털사업 드라이브 건 LG전자…SK매직과 격차 더 벌린다</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>LG전자 렌털, 올해도 급성장 전망…300만 계정 돌파할 듯5일 업계에 따르면 LG전자는 지난해 목표로 세운 렌털 270만 계정을 무난히 달성했을 것으로 관측된다. [사진=LG전자][아이뉴스24 서민지 기자] 신종 코로나바이러스 감염증(코로나19) 속 렌털 시장이 확대되는 가운데 LG전자가 빠르게 시장을 확대해 나가고 있다. LG전자는 2위 자리를 굳건히 지키는 것은 물론 3위 사업자인 SK매직과의 격차를 벌릴 전망이다.5일 업계에 따르면 LG전자는 지난해 목표로 세운 렌털 270만 계정을 무난히 달성했을 것으로 관측된다. SK매직은 지난해 말 200만 계정을 돌파한 것으로 전해졌다.이에 따라 LG전자와 SK매직의 격차가 커지는 모습이다. 지난해 상반기 기준으로 LG전자는 239만, SK매직은 194만을 기록했는데, 격차가 45만에서 하반기 70만까지 벌어지게 됐다.실제 LG전자의 렌털 사업은 수익성 측면에서도 큰 폭의 성장세를 보이고 있다. LG전자는 지난해 3분기 렌털 사업에서 매출 1천564억 원을 기록하며, 역대 최대치를 달성했다. 3분기 누적 매출은 4천275억 원으로 전년도 연간 매출(4천398억 원)을 넘어섰다.업계에서는 LG전자가 이같은 성장세를 이어가며 올해 300만 계정을 돌파할 것이라는 전망을 내놓는다. 렌털 시장 규모가 꾸준히 늘고 있는 데다 LG전자가 렌털 사업에 집중하면서 큰 폭의 성장세가 기대된다는 관측이다.KT경제경영연구소에 따르면 지난해 국내 렌털 시장 규모는 40조 원을 넘어설 것으로 예상된다. 렌털 시장은 지난 2006년 3조 원에서 2016년 25조9천억 원으로 10년 새 8.6배나 성장한 바 있다.이에 LG전자는 렌털 사업에 더욱 힘을 주는 분위기다. LG전자는 최근 자회사 하이엠솔루텍 사업 중 가전 렌털 사업인 케어솔루션 부문을 분리해 '하이케어솔루션'을 신설했다.LG전자는 최근 자회사 하이엠솔루텍 사업 중 가전 렌털 사업인 케어솔루션 부문을 분리해 '하이케어솔루션'을 신설했다. 또 지난해 말 조직개편을 통해 한국영업본부 내 렌털케어링사업담당을 렌털케어링사업센터로 격상했다. [사진=아이뉴스24 포토 DB]또 지난해 말 조직개편을 통해 한국영업본부 내 렌털케어링사업담당을 렌털케어링사업센터로 격상했다. 렌털 사업이 고속 성장함에 따라 인력 역시 꾸준히 늘리고 있는 것으로 전해졌다.현재 LG전자는 정수기와 공기청정기, 식기세척기, 의류관리기 등을 중심으로 렌털 사업을 진행하고 있다. 향후 식물재배기 등 렌털 항목을 확대하며 성장세를 이어간다는 방침이다.LG전자 관계자는 "정수기를 비롯해 다양한 메인 제품을 내세워 시장을 공략하고 있다"며 "차별화된 케어솔루션 서비스도 강점"이라고 설명했다.고의영 하이투자증권 연구원은 "LG전자의 렌털 계정은 올해 340만으로 성장할 것으로 보인다"며 "올해 H&amp;A 사업부 매출에서 렌털이 차지하는 비중은 3.5%에 이를 것"이라고 예상했다.이어 "구독 경제로의 사업 모델 전환으로 생각해볼 수 있으며, 수익성이 높고 상고하저의 계절성이 완화될 수 있다는 점도 긍정적이다"고 평가했다.서민지기자 jisseo@inews24.com▶네이버 채널에서 '아이뉴스24'를 구독해주세요.▶재밌는 아이뉴스TV 영상보기 ▶아이뉴스24 바로가기[ⓒ 아이뉴스24 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CES 2021 D-7…삼성·LG, TV 불꽃 경쟁 예고</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>다음주 11~14일 온라인 개최…미니 LED TV 두고 TV 전쟁 재점화 전망(지디넷코리아=권혜미  기자)세계 최대 가전·IT 전시회 ‘CES 2021’이 일주일 앞으로 다가온 가운데 글로벌 TV 제조사인 삼성전자와 LG전자가 미니 LED TV와 가정용 마이크로 LED TV, 올레드 라인업 등을 내세워 프리미엄 TV 시장 주도권을 놓고 치열한 경쟁을 벌일 전망이다.삼성전자 마이크로 LED TV 110형(사진=삼성전자)삼성전자는 미국 현지시간으로 내달 11일부터 나흘간 온라인으로 진행되는 CES 2021 개막에 앞서 자체 TV 언팩 행사인 ‘퍼스트룩 2021’을 진행한다.퍼스트룩은 삼성전자가 매년 TV 관련 신기술·신제품을 선보이고 미래 디스플레이 비전을 공개하는 행사로 올해 9년째를 맞았다.올해 퍼스트룩 2021 행사는 누구나 볼 수 있다. 삼성전자 뉴스룸과 삼성닷컴, 유튜브 채널에서 6일 오전 11시(미국 동부시간 기준, 한국 시간 1월 7일 새벽 1시) 라이브 스트리밍으로 진행된다.삼성전자는 이번 행사에서 미니 LED 기술이 적용된 TV 신제품을 발표할 것으로 점쳐진다. 이 제품은 삼성 QLED에 사용되는 퀀텀닷 시트와 함께 적용돼 최상위 제품군에 위치할 가능성이 높다.아울러 가정용 마이크로 LED TV도 출품한다. 삼성 마이크로 LED TV 110형의 출고가는 1억 7천만원으로, 올해 1분기 본격 출시를 앞두고 있다.삼성전자는 새로운 사이즈의 마이크로 LED TV 출시도 검토 중이다. 퍼스트룩 자리에서 신제품 라인업 사이즈를 확정해 발표한다는 방침이다.매년 올레드 TV에 힘을 실어왔던 LG전자는 올해 미니 LED 기술을 적용한 프리미엄 LCD TV인 ‘LG QNED TV’도 함께 강조하고 나설 것으로 보인다. LG QNED TV는 기존 LG 올레드 TV와 LG 나노셀 TV 사이에 위치한 라인업이다.LG QNED(사진=LG전자)LG전자는 QNED TV 관련 초대형 제품 중심으로 8K와 4K 해상도를 포함해 10여 개 모델을 글로벌 시장에 본격 판매할 계획이다.LG전자는 올해 CES가 100% 온라인으로 진행되지만 고객이 기존의 오프라인 전시와 비슷하게 경험할 수 있도록 별도의 LG전자 사이트에 인터넷 방송, 3D 가상 전시관 등 다양한 전시 플랫폼을 운영할 예정이다.한편, 삼성전자는 올해 ‘모두를 위한 보다 나은 일상'을 주제로 CES 2021에 참가한다. LG전자는 ‘소중한 일상은 계속됩니다. LG와 함께 홈 라이프를 편안하게 누리세요’ 문구를 앞세워 CES 2021을 찾는다.권혜미 기자(hyeming@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CES 2021 D-7…삼성·LG, TV 불꽃 경쟁 예고</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>다음주 11~14일 온라인 개최…미니 LED TV 두고 TV 전쟁 재점화 전망(지디넷코리아=권혜미  기자)세계 최대 가전·IT 전시회 ‘CES 2021’이 일주일 앞으로 다가온 가운데 글로벌 TV 제조사인 삼성전자와 LG전자가 미니 LED TV와 가정용 마이크로 LED TV, 올레드 라인업 등을 내세워 프리미엄 TV 시장 주도권을 놓고 치열한 경쟁을 벌일 전망이다.삼성전자 마이크로 LED TV 110형(사진=삼성전자)삼성전자는 미국 현지시간으로 내달 11일부터 나흘간 온라인으로 진행되는 CES 2021 개막에 앞서 자체 TV 언팩 행사인 ‘퍼스트룩 2021’을 진행한다.퍼스트룩은 삼성전자가 매년 TV 관련 신기술·신제품을 선보이고 미래 디스플레이 비전을 공개하는 행사로 올해 9년째를 맞았다.올해 퍼스트룩 2021 행사는 누구나 볼 수 있다. 삼성전자 뉴스룸과 삼성닷컴, 유튜브 채널에서 6일 오전 11시(미국 동부시간 기준, 한국 시간 1월 7일 새벽 1시) 라이브 스트리밍으로 진행된다.삼성전자는 이번 행사에서 미니 LED 기술이 적용된 TV 신제품을 발표할 것으로 점쳐진다. 이 제품은 삼성 QLED에 사용되는 퀀텀닷 시트와 함께 적용돼 최상위 제품군에 위치할 가능성이 높다.아울러 가정용 마이크로 LED TV도 출품한다. 삼성 마이크로 LED TV 110형의 출고가는 1억 7천만원으로, 올해 1분기 본격 출시를 앞두고 있다.삼성전자는 새로운 사이즈의 마이크로 LED TV 출시도 검토 중이다. 퍼스트룩 자리에서 신제품 라인업 사이즈를 확정해 발표한다는 방침이다.매년 올레드 TV에 힘을 실어왔던 LG전자는 올해 미니 LED 기술을 적용한 프리미엄 LCD TV인 ‘LG QNED TV’도 함께 강조하고 나설 것으로 보인다. LG QNED TV는 기존 LG 올레드 TV와 LG 나노셀 TV 사이에 위치한 라인업이다.LG QNED(사진=LG전자)LG전자는 QNED TV 관련 초대형 제품 중심으로 8K와 4K 해상도를 포함해 10여 개 모델을 글로벌 시장에 본격 판매할 계획이다.LG전자는 올해 CES가 100% 온라인으로 진행되지만 고객이 기존의 오프라인 전시와 비슷하게 경험할 수 있도록 별도의 LG전자 사이트에 인터넷 방송, 3D 가상 전시관 등 다양한 전시 플랫폼을 운영할 예정이다.한편, 삼성전자는 올해 ‘모두를 위한 보다 나은 일상'을 주제로 CES 2021에 참가한다. LG전자는 ‘소중한 일상은 계속됩니다. LG와 함께 홈 라이프를 편안하게 누리세요’ 문구를 앞세워 CES 2021을 찾는다.권혜미 기자(hyeming@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>씨젠, 글로벌 부문 사장에 이호 전 LG전자 부사장 영입</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>[서울경제] 씨젠(096530)이 글로벌 영업·마케팅 총괄 사장에 이호(사진) 전 LG전자 부사장을 영입했다.5일 씨젠에 따르면 이호 신임 사장은 LG전자에서 미국 판매 법인장과 프랑스 판매 법인장, 중남미 지역 대표를 맡는 등 4개 대륙에서 약 30년 동안 글로벌 경력을 쌓아왔다. 직전에는 아시아 지역을 대표하는 부사장을 역임했다. 씨젠은 현재 7개 해외법인과 60여개 대리점을 기반으로 글로벌 시장의 매출을 견인하고 있다. 올해부터 보다 적극적으로 법인을 확대하고 인력을 투자해 글로벌 선점 기회를 확대한다는 방침이다.씨젠 관계자는 이 신임 사장 영입에 대해 “유럽이나 중남미 시장은 물론 아직 본격 진출하지 못한 다른 대형 시장까지 진입해 진정한 글로벌 분자진단 회사로 거듭날 수 있기를 기대한다”고 말했다./이주원기자 joowonmail@sedaily.com▶ 엄마 기자 취재수첩 [서지혜의 건강한 육아]▶ 中투자 알짜정보만 쏙쏙  [니하오 중국증시]▶ 네이버 채널에서 '서울경제' 구독해주세요!저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>4분기 숨 고른 삼성·LG전자, 올해는 더 달린다</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>[디지털타임스 김위수 기자] 잠시 '숨 고르기'에 들어간 삼성·LG전자가 지난해에 이어 올해도 실적 성장세를 이어갈 전망이다. 코로나19 사태와 환율, 보호무역 등의 변수는 여전하지만, 지난 2017년 삼성전자의 역대 최대 실적을 견인했던 '반도체 초호황'이 재현되고, 여기에 사회적 거리두기 등 비대면 문화 확산에 따른 가전사업의 호조가 호재로 꼽힌다.여기에 두 회사 모두 신성장 사업 공략을 위한 공격적인 투자를 하고 있어 업계의 기대감은 높아지고 있다. '사법 리스크' 등 사업 외적인 돌발변수가 없는 한 당분간 성장세는 지속될 것으로 기대된다.5일 금융정보 제공업체 에프앤가이드에 따르면 삼성전자의 지난해 4분기 매출 컨센서스(증권사 전망치 평균)는 61조2500억원으로 전년 대비 2.3% 늘어났을 것으로 집계됐다. 같은 기간 영업이익은 32.6% 늘어난 9조4950억원으로 추산됐다. 추정대로면 전년 동기보다는 선방했지만, 직전 분기에 비해서는 다소 아쉽다는 평가가 나온다. 직전 분기와 비교하면 매출은 7%, 영업이익은 23% 줄어든 숫자다.LG전자 역시 깜짝 실적을 거뒀던 전 분기와 비교해 수익성은 다소 떨어졌을 것으로 추정된다. LG전자의 매출 컨센서스는 17조8600억원, 영업이익은 6198억원으로 나타났다. 전년 동기와 비교해 매출은 11%, 영업이익은 무려 509% 증가한 숫자다. 다만 1조원에 육박하는 영업이익을 거둔 직전 분기와 비교하면 다소 아쉽다. '블랙프라이데이' 등 마케팅 비용 증가와 환율 등이 요인으로 꼽힌다.업계에서는 다만 지난해 연간으로 볼 때 코로나19라는 악재를 극복하고 가전업계의 기존 공식인 '상고하저' 흐름을 깼다는 점에서 의미 있는 실적을 거둔 것으로 평가하고 있다. 올해 코로나19 백신이 확산돼 억눌렸던 소비 수요가 움직일 경우 작년보다 수익률이 두 자릿수로 개선될 것으로 업계에서는 기대하고 있다.에프앤가이드 컨센서스에 따르면 삼성전자의 올해 연간 영업이익 추정치는 46조원 안팎으로, 작년(36조원 수준)보다 약 10조원 가량 증가할 전망이다. LG전자 역시 올해 영업이익이 작년보다 6000억원 가량 늘어날 것으로 추정되고 있다.삼성전자의 경우 반도체 사업의 호황기 진입이 주 요인으로 꼽힌다. 산업통상자원부와 반도체협회는 이날 "올해 글로벌 반도체 시장이 작년 대비 약 8∼10% 증가하고, 메모리 시장은 약 13∼20% 증가할 것으로 전망된다"고 밝혔다. 파운드리 등 비메모리 부문에서도 공격적인 사업 확장이 기대된다.도쿄올림픽의 개최 가능성도 남아있다. 보통 전세계적인 스포츠 이벤트의 개최는 TV 수요의 증가로 이어지는 만큼, TV업체에는 호재로 작용한다.LG전자의 경우 전략적인 투자를 앞세워 자동차 전장부품에서의 흑자 전환을 노리고 있다. LG전자는 작년 말 발표한 세계 3위 자동차 부품업체 마그나 인터내셔널과 합작법인 출범 작업을 오는 7월까지 마무리하고 본격적인 시너지를 모색한다는 계획이다.  김위수·박정일기자 withsuu@dt.co.kr이재용(오른쪽 두번째) 삼성전자 부회장이 4일 경기도 평택사업장을 방문해 EUV 전용라인을 점검하고 있다. &lt;삼성전자 제공&gt;     디지털타임스 채널 구독 / 뉴스스탠드 구독디지털타임스 홈페이지 바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>호재 속 성장동력 확보... 삼성·LG전자, 올해도 핑크빛 전망</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>[디지털타임스 김위수 기자] 잠시 '숨 고르기'에 들어간 삼성·LG전자가 지난해에 이어 올해도 실적 성장세를 이어갈 전망이다. 코로나19 사태와 환율, 보호무역 등의 변수는 여전하지만, 지난 2017년 삼성전자의 역대 최대 실적을 견인했던 '반도체 초호황'이 재현되고, 여기에 사회적 거리두기 등 비대면 문화 확산에 따른 가전사업의 호조가 호재로 꼽힌다.여기에 두 회사 모두 신성장 사업 공략을 위한 공격적인 투자를 하고 있어 업계의 기대감은 높아지고 있다. '사법 리스크' 등 사업 외적인 돌발변수가 없는 한 당분간 성장세는 지속될 것으로 기대된다.5일 금융정보 제공업체 에프앤가이드에 따르면 삼성전자의 지난해 4분기 매출 컨센서스(증권사 전망치 평균)는 61조2500억원으로 전년 대비 2.3% 늘어났을 것으로 집계됐다. 같은 기간 영업이익은 32.6% 늘어난 9조4950억원으로 추산됐다. 추정대로면 전년 동기보다는 선방했지만, 직전 분기에 비해서는 다소 아쉽다는 평가가 나온다. 직전 분기와 비교하면 매출은 7%, 영업이익은 23% 줄어든 숫자다.LG전자 역시 깜짝 실적을 거뒀던 전 분기와 비교해 수익성은 다소 떨어졌을 것으로 추정된다. LG전자의 매출 컨센서스는 17조8600억원, 영업이익은 6198억원으로 나타났다. 전년 동기와 비교해 매출은 11%, 영업이익은 무려 509% 증가한 숫자다. 다만 1조원에 육박하는 영업이익을 거둔 직전 분기와 비교하면 다소 아쉽다. '블랙프라이데이' 등 마케팅 비용 증가와 환율 등이 요인으로 꼽힌다.업계에서는 다만 지난해 연간으로 볼 때 코로나19라는 악재를 극복하고 가전업계의 기존 공식인 '상고하저' 흐름을 깼다는 점에서 의미 있는 실적을 거둔 것으로 평가하고 있다. 올해 코로나19 백신이 확산돼 억눌렸던 소비 수요가 움직일 경우 작년보다 수익률이 두 자릿수로 개선될 것으로 업계에서는 기대하고 있다.에프앤가이드 컨센서스에 따르면 삼성전자의 올해 연간 영업이익 추정치는 46조원 안팎으로, 작년(36조원 수준)보다 약 10조원 가량 증가할 전망이다. LG전자 역시 올해 영업이익이 작년보다 6000억원 가량 늘어날 것으로 추정되고 있다.삼성전자의 경우 반도체 사업의 호황기 진입이 주 요인으로 꼽힌다. 산업통상자원부와 반도체협회는 이날 "올해 글로벌 반도체 시장이 작년 대비 약 8∼10% 증가하고, 메모리 시장은 약 13∼20% 증가할 것으로 전망된다"고 밝혔다. 파운드리 등 비메모리 부문에서도 공격적인 사업 확장이 기대된다.도쿄올림픽의 개최 가능성도 남아있다. 보통 전세계적인 스포츠 이벤트의 개최는 TV 수요의 증가로 이어지는 만큼, TV업체에는 호재로 작용한다.LG전자의 경우 전략적인 투자를 앞세워 자동차 전장부품에서의 흑자 전환을 노리고 있다. LG전자는 작년 말 발표한 세계 3위 자동차 부품업체 마그나 인터내셔널과 합작법인 출범 작업을 오는 7월까지 마무리하고 본격적인 시너지를 모색한다는 계획이다.박정일·김위수기자 comja77@dt.co.kr이재용(오른쪽 두번째) 삼성전자 부회장이 4일 경기도 평택사업장을 방문해 EUV 전용라인을 점검하고 있다. &lt;삼성전자 제공&gt;     디지털타임스 채널 구독 / 뉴스스탠드 구독디지털타임스 홈페이지 바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>LG전자, 신가전·TV 흥행 돌풍...영업익 年3조 넘을듯</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>[파이낸셜뉴스] LG전자의 사상 최대 실적이 전망된다.   코로나19 상황에 따른 지난해 상반기 '펜트업(억눌린)' 수요가 연말까지 이어지면서 신가전과 TV 실적 호조세에 따라 사상 첫 연간 영업익 '3조원의 벽'을 돌파할 것이란 분석이다. 올해는 전장사업(VS)의 흑자 전환으로 연간 영업익 4조원을 넘으리란 기대도 나온다.   5일 관련 업계와 금융정보업체 에프엔가이드에 따르면 LG전자의 지난해 영업이익은 3조 2000억원 수준으로 예상됐다. 이는 역대 최고 기록인 지난 2018년 연간 영업이익 2조7033억원을 훌쩍 뛰어넘은 수치다. LG전자는 지난해 3·4분기까지 이미 누적 영업이익 2조5448억원을 기록했다.   LG전자 실적의 견인차는 단연 '신가전'과 'TV'였다.   생활가전(H&amp;A) 사업본부의 3분기 누적 매출은 역대 처음으로 2조원을 넘어섰다. H&amp;A 사업본부 매출은 2010년 이후 10년 동안 성장세를 이어오고 있다. 여기에 TV를 총괄하는 HE 사업본부도 올레드 TV를 중심으로 한 글로벌 프리미엄 TV 판매 호조세로 실적 개선이 기대된다.   가전업계의 '상고하저' 실적 계절성 공식도 이번엔 예외가 될 것으로 점쳐진다. 코로나19 장기화로 홈 이코노미가 확산되면서 스타일러·건조기·식기세척기 등 스팀가전으로 대표되는 신가전 판매가 증가한 영향이다. 증권가는 LG전자의 4·4분기 매출 17조8603억원, 지난해 동기 대비 11.2% 대폭 늘 것으로 내다보고 있다.   노경탁 유진투자증권 연구원은 "4·4분기는 통상 프로모션 확대로 손익이 악화돼 왔으나, 올해는 코로나19로 인해 유통 채널 내 재고가 타이트하게 관리되고 있다"면서 "가전과 TV의 온라인 판매 비중이 늘면서 수익성이 크게 개선될 것"이라고 예상했다.   올해 전망은 더 밝다. 미래 먹거리로 키워온 전장사업의 흑자 전환이 점쳐지면서 올해 연간 영업이익이 최대 4조원에 달할 것이란 예측도 나온다.   최근 LG전자는 글로벌 3위 자동차 부품회사 '마그나'와 합작사를 설립하는 등 전장사업을 가속화하고 있다. 22분기 연속 적자를 내고 있는 스마트폰(MC) 사업본부도 중남미 등 글로벌 판매량 증대로 적자 폭을 줄이며 호실적을 뒷받침 할 전망이다.    seo1@fnnews.com 김서원 기자   ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ '아는 척'하고 싶은 당신을 위한 [두유노우]▶ 날로먹고 구워먹는 금융이슈 [파인애플]  ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[신년사] 권봉석 LG전자 사장 "팬덤 만들 미래 사업 체계적 준비하자"</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>"성과 일관성 있게 입증해야…질적 성장 중심으로 고도화"(서울=연합뉴스) 김영신 기자 = 권봉석 LG전자 대표이사 사장은 4일 "고객에 대한 이해를 기반으로 LG 팬덤을 만들 수 있는 미래 사업을 체계적으로 준비하자"고 밝혔다.    권 사장은 임직원에게 이메일로 전한 신년사를 통해 "성장을 통한 변화, 변화를 통한 성장을 만들어 가는 노력을 계속해야 한다"며 이같이 강조했다.    권 사장은 LG전자가 지난해 하반기 분기 최고 수준을 달성한 점을 언급하며 "성과가 일회성이 아니라 본질적 경쟁력에서 나왔다는 것을 일관성 있게 입증해야 한다"고 말했다.    그러면서 "기존 사업의 경쟁력을 높이는 가운데 고객 이해를 기반으로 LG팬덤을 만들 수 있는 미래 사업을 체계적으로 준비하고 실행 역량을 높여야 한다"며 "질적 성장 중심으로 사업 포트폴리오를 고도화해야 한다"고 설명했다.권봉석 LG전자 사장, 임직원들에게 이메일로 신년 메시지 전달(서울=연합뉴스) 권봉석 LG전자 사장이 4일 새해를 맞아 시무식을 대신해 임직원들에게 이메일로 지난해 코로나19가 가져온 전례 없는 위기에서도 임직원들이 고객가치를 실현하기 위해 치열하게 고민하고 진정성 있게 노력해준 것에 대해 감사의 인사를 전했다. 2021.1.4     [LG전자 제공. 재판매 및 DB 금지] photo@yna.co.kr    권 사장은 "전략 과제를 달성하기 위해 임직원이 일하는 방식·생각을 전환해야 한다"며 "디지털 전환은 일상적 혁신을 뛰어넘어 아날로그 영역인 고객 감성·가치를 이해하는 것이 궁극적인 목표임을 잊지 말아야 한다"고 강조했다.    권 사장은 또한 기존에 없던 혁신을 창출하기 위해서는 점진적 성장을 뛰어넘는 '파괴적 변화(Disruptive Change)'에 집중해야 한다면서, 제조업 관점에서 벗어나 세분화 전략을 토대로 상품·서비스를 과감히 개발해야 한다고 역설했다.    권 사장은 "이를 위해서는 세계적 수준의 전문 역량이 필수적이고, 임직원에게 새로운 도전을 장려하는 열린 조직 문화가 정착해야 한다"며 "저수지에 담아둔 물을 활용하는 발전소처럼 지금까지 축적한 역량을 활용하는 LG전자를 만들자"고 덧붙였다.    shiny@yna.co.kr▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크]검찰총장의 '벌금수배 해제'는 월권?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>'반반택시'에  택시 광고..플러스티브이, LG전자와 '택시플러스' 출시</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>[이데일리 김현아 기자]디지털사이니지 분야 스타트업(초기벤처)인 플러스티브이(대표조재화)가 LG전자와 협력해 택시용 인터랙티브 광고매체 ‘택시플러스’를 제작, 서비스를 정식 출시한다.플러스티브이는 2016년 설립된 디지털 사이니지 솔루션 스타트업이다. 원격으로 디스플레이에 노출되는 영상, 이미지 콘텐츠를 관리할 수 있는 솔루션을 개발했으며, 기아자동차, 뚜레쥬르, GS25 등 약 50여 개의 대형 고객사에 1만여개 디지털 사이니지를 운영 중이다. 최근에는 ‘반반택시’, ‘마카롱택시’ 등에도 적용했다. 택시플러스는 LG전자의 지패드 태블릿을 기반으로 차량의 헤드레스트 거치대에 설치되는 인터랙티브 광고 매체다. 인공지능과 안면인식 기능을 활용하여 택시 탑승자에게 최적화된 광고와 영상콘텐츠를 보여준다. B2B 고객을 위한 커스터마이징도 지원하며 모빌리티용에 최적화됐다.플러스티브이와 LG전자가 제작한 택시플러스는 현재까지 약 200대의 택시에 장착돼 운영되고 있다. 최근 출시되고 있는 브랜드 택시들에게 차별화된 서비스 홍보를지원하며, 택시 탑승객에게는 유익한 콘텐츠를 제공하고, 택시 운영사에는 새로운 수익원을제공한다. 올해 2월까지 약 1천대의 택시에 장착할 예정이다.플러스티브이 조재화 대표는 “택시 탑승고객들을 대상으로 맞춤 광고의 긍정적인 경험을 이끌어 내는 모빌리티 광고 매체를 만드는 것이 목표”라며, 택시플러스의 비전을 밝혔다.김현아 (chaos@edaily.co.kr)▶ #24시간 빠른 #미리보는 뉴스 #eNews+▶ 네이버에서 '이데일리 뉴스'를 만나보세요▶ 빡침해소, 청춘뉘우스 '스냅타임'＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[미리보는 CES 2021] &lt;상&gt;삼성·LG '개인 맞춤' 가전, 글로벌 트렌드 선도</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>11일부터 나흘간…가상 전시관 열어가전·5G·IoT 등 2000여개 기업 참여삼성 '비스포크'·LG '오브제컬렉션'라이프스타일·공간 인테리어 강조삼성전자와 LG전자가 밀레니얼 세대를 겨냥해 국내에서 빅히트한 '개인 맞춤형 디자인 가전'을 CES 2021에서 데뷔시키며 북미 시장 공략에 나선다.실용성이 강조돼 온 북미 가전 시장에 라이프스타일, 공간 인테리어를 강조한 제품으로 가전 시장 흐름에 새바람을 일으킬지 주목된다.이번 전시회는 코로나19 영향으로 CES 사상 처음 온라인 전시회로 꾸려진다. 이 때문에 코로나19 팬데믹 극복을 위한 첨단 기술이나 언택트 시대로의 전환에 맞춰진 새로운 트렌드 제품이 주류를 형성할 것으로 예상된다.삼성전자와 LG전자의 라이프스타일·공간을 강조한 제품군 소개도 생활 중심으로 부각시킨 '집'이라는 공간에 새로운 가치를 부여하는 트렌드를 반영한 것으로 풀이된다.실제로 키노트 스피치를 비롯해 세계 각국의 참여 기업들도 코로나19 극복과 이후 삶의 변화에 초점을 맞춘 것으로 알려졌다.CES 2021은 오는 11일(현지시간)부터 나흘 동안 온라인으로 개최된다. 전시는 기업들이 CES 가상 전시관에 신제품과 기술을 소개하는 방식으로 진행된다. 소비자기술협회(CTA)에 따르면 올해는 5세대(5G) 이동통신, 사물인터넷(IoT), 블록체인, 헬스케어, 로봇 등 분야에서 지난해 절반 수준인 2000여개 기업이 참가할 예정이다.매년 큰 주목을 받아 온 삼성전자와 LG전자는 CES 2021에서 처음으로 각사 밀레니얼 가전을 글로벌 시장에 선보일 예정이다. 국내에서 빅히트 친 라이프스타일 가전을 해외 시장에 본격 출시하기에 앞서 첫선을 보이는 자리다.삼성전자는 맞춤형 가전 비스포크 냉장고와 인공지능(AI) 기능을 탑재한 그랑데 AI세탁기·건조기를 선보인다. LG전자는 공간 인테리어 가전 LG오브제컬렉션을 전시할 계획이다.북미 시장에선 아직 맞춤형 라이프스타일 가전 시장이 형성돼 있지 않아 삼성과 LG가 선보이는 한국형 밀레니얼 가전이 큰 반향을 일으킬 것으로 기대된다.삼성전자와 LG전자는 각자 '모두를 위한 더 나은 일상' '소중한 일상은 계속됩니다. LG와 함께 홈라이프를 편히 누리세요'를 주제로 온라인 전시를 꾸민다.삼성전자 비스포크 냉장고LG전자가 미국 현지시간 1월 11일에 개막하는 CES 2021을 통해 공간 인테리어 가전 LG 오브제컬렉션을 글로벌 시장에 선보인다. LG전자는 집 전체의 공간 인테리어를 완성하는 LG 오브제컬렉션의 가치를 고객들이 직접 경험할 수 있도록 온라인 체험 사이트를 운영한다. 사진 왼쪽부터 LG 오브제컬렉션 상냉장 하냉동 냉장고, 1도어 컨버터블 냉장고.초고화질·초대형 TV 경쟁도 CES 2021을 달군다. 삼성전자는 행사 개막을 앞두고 자체 TV 언팩 행사인 퍼스트룩을 열고 미니 발광다이오드(LED) 기술을 적용한 신제품 TV를 공개할 예정이다. 가정용 마이크로 LED TV도 선보인다.LG전자는 새해 유기발광다이오드(OLED, 올레드) TV 신제품과 미니 LED TV를 공개할 예정이다. 중국 TCL도 삼성과 LG에 맞서 한층 업그레이드한 미니 LED TV를 공개한다고 밝혔다.팬데믹을 극복할 첨단 정보기술(IT)도 대거 선보인다. 한스 베스트베리 버라이즌 최고경영자(CEO)는 기조연설에서 원격 의료·교육 등을 발전시키기 위한 핵심 5G 기술을 발표할 예정이다. 코리 배리 베스트바이 최고경영자(CEO)와 더그 맥밀런 월마트 CEO는 기조연설에서 팬데믹을 극복할 기술 비전을 소개한다.지난해 말부터 '애플카' 소식으로 촉발된 미래형 자동차에 대한 세계인의 관심은 CES 2021까지 이어질 것으로 전망된다.제너럴모터스(GM), 벤츠 등은 미래차 전략을 공개한다. 국내 자동차부품 업체 만도는 '자유 장착형 첨단 운전 시스템'을 선보인다. 만도는 차량 지능·운송 부문에서 혁신상을 받았다.벤츠 커넥티드카 자료사진삼성전자는 하만 전장 제품인 '디지털콕핏 2021'을 공개할 예정이다. 캐나다 마그나와 합작법인을 설립한 LG전자도 한층 진화한 모빌리티 기술을 선보일 것으로 보인다.박소라기자 srpark@etnews.com▶ “2021년, 꼭 알아야할 클라우드 기술과 비즈니스” 21일 방송▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>LG "편한 것 넘어 건강한 가전 만든다"</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>LG전자 퓨리케어 공기청정기99.9% 항바이러스 필터 적용LG디스플레이 OLED 패널은美 `눈 편한 디스플레이` 인증LG디스플레이의 유기발광다이오드(OLED) TV 패널이 미국의 눈 안전 특화 인증기관 `아이세이프(Eyesafe)`로부터 인증을 획득했다. 사진은 LG디스플레이 직원이 OLED TV 패널을 보고 있는 모습. [사진 제공 = LG디스플레이] 건강과 위생관리에 대한 소비자의 관심 증가에 맞춰 LG전자와 LG디스플레이가 연이어 관련 연구·인증 확보에 나서고 있다.LG전자는 5일 바이러스와 세균을 99.9% 제거하는 '퓨리케어 360도 공기청정기 플러스'를 출시했다. LG전자는 항바이러스·항균 효과가 있는 트루 토털케어 필터를 이번 신제품에 처음 적용했다. 서울대학교 보건대학원과 공동으로 시험한 결과, 이 필터는 쥐코로나바이러스(MuCoV)를 99.9% 제거한다. 또한 한국화학융합시험연구원(KTR)의 실험 결과에 따르면 이 필터는 황색포도상구균, 폐렴간균, 대장균과 일부 바이러스 등을 99.9% 없애준다. 신제품은 기존 모델의 공기청정 성능은 그대로 계승했다. 이 제품은 0.01㎛(마이크로미터) 크기까지의 극초미세먼지를 제거한다. 한국천식알레르기협회(KAF)와 영국알레르기협회(BAF)로부터 인증도 획득했다. 신제품은 청정면적이 30형 모델과 30형 펫 모델, 19형 모델, 19형 펫 모델이다. 출하가는 99만9000~156만9000원이다.이날 LG디스플레이는 자사의 유기발광다이오드(OLED) 패널이 미국의 눈 안전 특화 인증기관 '아이세이프(Eyesafe)'로부터 인증을 획득했다고 밝혔다. 아이세이프는 눈의 피로도 증가나 수면 장애를 유발하는 것으로 알려진 블루라이트를 측정한다. LG디스플레이 OLED TV 패널은 전체 블루라이트 중 유해 블루라이트의 비중이 약 34%(65인치 기준)로 측정됐다. 또 전체 가시광선 방출량 중 비중도 기준치 이하로 나타났다. LG디스플레이 관계자는 "현존 TV 패널 중 업계 최저 수준으로, 동일 인치대 프리미엄급 LCD TV 패널 대비 절반 정도 낮은 수치"라고 설명했다.한편 이날 LG전자는 오는 11일 온라인으로 개막하는 세계 최대 전자전시회인 'CES 2021'을 일주일 앞두고 티저영상을 공개했다.[박재영 기자]▶ 네이버 메인에서 '매일경제'를 받아보세요▶ 궁금한 제조과정 영상으로 보세요. '이렇게 만들죠'▶ 아파트 살까 청약할까. 여기서 확인하세요. '매부리tv'[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>LG전자, 새해 맞아 '한마음 동행 페스타' 진행</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>이달 말까지 전국 온·오프라인 매장서 총 90여 종의 행사제품 할인(지디넷코리아=권혜미  기자)LG전자가 새해를 맞아 이달 31일까지 ‘한마음 동행 페스타’를 진행한다.LG전자는 코로나19로 인해 힘든 시기를 보내고 있는 국민들과 함께 한마음으로 새해를 희망차게 시작하고자 “함께하면 이겨낼 수 있습니다!”는 슬로건 하에 이번 행사를 마련했다.LG전자는 전국 LG베스트샵을 포함해 온·오프라인 매장에서 한마음 동행 페스타 특별전 행사제품을 구매하는 고객들에게 폭넓은 혜택을 제공한다. 대상 제품은 TV, 냉장고, 에어컨, 워시타워, 건조기, 스타일러, 청소기, 공기청정기, 식기세척기, 전기레인지 등 15개 제품군 가운데 총 90여 종이다.모델들이 서울 강서구에 위치한 LG베스트샵 강서본점에서 한마음 동행 페스타를 소개하고 있다. (사진=LG전자)LG전자는 오프라인 매장에서 77형 올레드 TV(모델명: OLED77ZXK)를 구매한 고객에게 최대 200만원 상당의 멤버십 포인트나 캐시백 혜택 등을 제공한다. 21kg 용량 트롬 세탁기 씽큐(모델명: F21VDD)나 16kg 용량 트롬 건조기 스팀 씽큐(모델명: RH16VTS)를 구입할 경우 각각 최대 20만원 상당의 혜택을 받을 수 있다.LG전자는 공간 인테리어 가전 LG 오브제컬렉션과 건강관리가전 등 인기 가전 구입 고객들을 위한 행사도 마련했다. 오브제컬렉션 제품 중 서로 다른 품목으로 3개 이상 구매한 고객에게 구매 제품 수에 따라 최대 200만원 상당의 멤버십 포인트나 모바일상품권을 제공한다. 워시타워, 건조기, 스타일러, 식기세척기 등 트루스팀이 탑재된 건강관리가전을 서로 다른 품목으로 4개 이상 구매 시 제휴카드로 결제하면 최대 30만원 상당의 혜택을 받는다.한국영업본부 한국B2C그룹장 김정태 전무는 “어려운 시기를 보내고 있는 국민들과 함께 한마음으로 새해를 희망차게 시작하기 위해 이번 행사를 마련했다”라고 말했다.권혜미 기자(hyeming@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>LG전자, ‘미니LED’ 적용한 새 프리미엄 LCD TV 공개</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>[위클리 이슈-기업][한경비즈니스=이명지 기자] LG전자가 미니LED와 독자 고색 재현 기술을 적용해 한 차원 업그레이드된 프리미엄 액정표시장치(LCD) TV 라인업을 새롭게 선보였다. LG전자는 2020년 12월 29일 온라인 기술 설명회를 열고 새 프리미엄 LCD TV를 공개했다. LG전자가 이날 공개한 신제품은 현존 LCD TV 가운데 빛과 색을 내는 각각의 기술 정점에 있는 제품이다. 먼저 LG전자는 기존 고색 재현 LCD TV인 LG 나노셀 TV 대비 진일보한 기술을 적용해 LCD TV의 성능을 대폭 업그레이드한다. 신제품은 신규 기술인 ‘퀀텀 나노셀 컬러 테크놀로지’를 적용한다. 또 LG전자는 신제품 백라이트에 기존 LCD TV 대비 광원의 크기가 10분의 1 미만 수준인 미니LED를 적용한다.mjlee@hankyung.com[본 기사는 한경비즈니스 제 1310호(2021.01.04 ~ 2021.01.10) 기사입니다.]▶ 한경비즈니스 네이버 뉴스에서 [구독 클릭]▶ 요즘 핫한 유튜버&amp;기업 다 있다! 뉴니콘 유튜브 확인▶ 잡지 정기구독 신청 ⓒ 한경비즈니스, 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>LG전자, 로봇 클로이가 내린 커피 맛…이젠 바리스타 뺨친다</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>바리스타봇 클로이 커피솜씨한국커피협회가 공식 인증원두 풍부한 맛과 향 그대로병원·호텔·사무실서 일하는자율주행 `서빙로봇`도 내놔엘리베이터 탑승까지 척척◆ 2021 신년기획 미래산업 ◆ 바리스타 자격증을 획득한 LG 클로이 바리스타봇이 커피를 만들고 있다. [사진 제공 = LG전자] LG전자는 4차 산업혁명의 큰 축인 디지털전환(Digital Transformation)을 통해 글로벌 위기를 극복하고 회사의 성장과 변화를 꾀한다. 이를 위해 인공지능, 로봇, 자동차부품 등 미래 성장사업에 대한 투자를 강화하며 외부 환경 변화에 빠르게 대응하고 있다. 특히 외부와 전략적으로 협력하는 오픈 이노베이션 전략을 적극 펼치고 있다. ◆ 인공지능, 실내 자율주행 등 핵심기술을 바탕으로 로봇 솔루션 제공LG전자는 로봇을 미래사업의 한 축으로 삼고 일상생활에서 쉽게 접할 수 있는 로봇에 초점을 맞춰 호텔, 병원, F&amp;B(식음료) 등 맞춤형 솔루션을 선보이고 있다. 지난해 12월 LG전자 협동로봇인 'LG 클로이 바리스타봇(LG CLOi BaristaBot)'은 사단법인 한국커피협회로부터 국내 최초로 '로봇 브루잉 마스터' 자격증을 획득했다. 'LG 클로이 바리스타봇'은 브루잉 마스터 자격증 획득으로 F&amp;B 사업의 본질인 '맛'에 대한 신뢰성을 확보하게 됐다. 원두 고유의 '맛'과 풍부한 '향'을 항상 일정하게 제공할 수 있어 영업활동에 본격 투입할 수 있게 됐다는 의미다. LG전자는 브루잉 마스터 자격증을 획득한 'LG 클로이 바리스타봇'을 올해 초 LG트윈타워를 시작으로 주요 LG베스트샵 매장에서 상용화할 계획이다. 또 LG전자는 지난해 '2020 한국전자전'에서 LG 클로이 살균봇을 공개했다. 이 제품은 UV-C(Ultraviolet-C) 램프를 이용해 세균을 제거한다. UV-C 자외선은 100~ 280나노미터(㎚) 파장의 자외선으로 각종 세균을 제거하는 데 많이 사용된다. 한국건설생활환경시험연구원(KCL)은 이 로봇에 있는 UV-C 램프가 50㎝ 이내 거리에 있는 대장균을 99.9% 살균하는 효과를 확인했다. LG 클로이 살균봇은 올해 초 미국 시장에 출시될 예정이다.지난해 7월 LG전자는 자율주행 서비스 로봇인 'LG 클로이 서브봇(LG CLOi ServeBot)'을 정식 출시하며 로봇 사업에 속도를 내고 있다.LG 클로이 서브봇(서랍형)은 병원을 포함해 호텔, 사무실 등에서 유용하다. 배송 중 도난, 분실 등을 방지하기 위해 보안 잠금 장치가 돼 있다. 또 관리자가 로봇 관제 시스템을 이용해 원격으로 로봇의 상태를 모니터링하고 사용 이력, 배송 스케줄 등을 관리할 수 있다. 주로 레스토랑에서 사용될 LG 클로이 서브봇(선반형)은 선반 3개를 끼우면 최대 4개의 칸에 20㎏까지 음식을 나눠 담을 수 있다. LG 클로이 서브봇은 자율주행 기술을 기반으로 다수의 목적지를 설정해 순차적으로 물건을 배송할 수 있다. LG전자는 2017년부터 인천공항에서 클로이 안내로봇을 운영하며 안정적인 로봇 자율주행기술과 장애물 회피 기술을 검증했다.특히 LG 클로이 서브봇은 지난해 10월 행정안전부로부터 '승강기 안전검사의 검사특례 인정'을 받아 스스로 안전하게 승강기를 타고 내리며 자유롭게 층간을 이동할 수 있도록 했다. LG전자는 로봇이 단순한 업무를 대신하면 직원들은 육체적인 부담을 줄이고 고객에게 더욱 집중할 수 있어 서비스 품질이 높아질것으로 기대하고 있다. 특히 비대면 서비스가 필요한 시기에 사람 간 접촉을 최소화할 수 있는 로봇의 역할이 더욱 커질 것으로 예상하고 있다. LG전자는 로봇 사업을 육성하기 위한 협력과 투자에도 적극적이다. LG전자는 지난해 초 미국 보스턴에 'LG 보스턴 로보틱스랩(LG Boston Robotics Lab)'을 설립했다. 로봇 인프라가 풍부한 보스턴에 거점을 확보함으로써 미래 로봇기술을 확보하는 한편 매사추세츠공대(MIT) 생체모방 로봇연구소를 이끄는 김상배 기계공학부 교수와 긴밀하게 공동연구에 협력할 계획이다.LG전자는 감성인식과 내비게이션 기술에 강점을 갖고 있어 4족 보행과 물체조작 기술 분야의 권위자인 김 교수와 협업으로 상당한 시너지를 낼 것으로 기대하고 있다. ◆ 오픈 이노베이션 강화해 미래준비 철저LG전자는 인하우스(In-House)의 혁신만으로는 시장의 흐름보다 앞서 나갈 수 없다고 판단하고 미래사업 육성을 위해 국내외 다양한 기업들과 협업하는 오픈 이노베이션에 박차를 가하고 있다. LG전자는 지난해 클라우드 게임 플랫폼 스타트업 블레이드(BLADE)를 시작으로 포터블 엑스레이 촬영기술을 갖춘 '레메디', 3D 의류 텍스타일 디자인툴을 보유한 '지이모션', 3D 실내공간 모델링 전문 기업 '티랩스' 등 신기술·미래사업 분야의 기업들에 투자하고 있다. 앞서 LG전자는 국내 모빌리티 서비스 플랫폼 스타트업인 '코드42', 미국 차량용 AI센서 스타트업  '에이아이(AEye)', 미국 인공지능 프로세서 설계 업체 '자이어팔콘(Gyrfalcon)', 이스라엘 자율주행 솔루션 업체인 '바야비전(VayaVision)' 등에 투자해 왔다. 또 국내 산업용 로봇 제조업체 '로보스타(Robostar)'를 인수하고 국내 기업인 아크릴(Acryl) 등에도 투자했다. 이외에도 LG전자는 차량 기술이나 모빌리티 관련 스타트업을 발굴하는 펀드인 '차이나 모빌리티 펀드', '매니브 모빌리티'를 비롯해 소프트뱅크벤처스가 AI 생태계 조성을 위한 글로벌유망 AI 스타트업을 발굴하고 투자하기 위해 조성한 '그로스 엑셀러레이션 펀드' 등 다양한 벤처캐피털에도 투자하고 있다.  ◆ 미래 기술 글로벌 전문가들과 협업LG전자는 디지털 전환에 기반한 R&amp;D혁신을 위해 글로벌 전문가와 교류하는 '이노베이션 카운실(Innovation Council)'을 발족했다. 빠르게 변하는 시장환경에 대비하기 위해 오픈 이노베이션 관점에서 다양한 시각과 인사이트를 통해 미래기술과 신사업 기회를 발굴할 계획이다. 이 카운실은 LG전자 최고기술책임자(CTO) 박일평 사장이 의장을 맡고 인공지능, 빅데이터, 클라우드, 로봇, 모빌리티 등 각 분야 전문가 12명이 참여한다. 카운실 멤버는 로봇 공학계의 세계적인 권위자이자 지능형 로봇 스타트업 '로버스트.AI(Robust.AI)'의 CTO 로드니 브룩스, 글로벌 결제서비스 기업 '페이팔(Paypal)'의 CTO 스리 시바난다, 클라우드 서비스 업체 '아마존웹서비스(AWS)'의 클라우드 아키텍처 전략담당 에이드리언 콕크로프트부사장 등이다.지난해 7월 온라인 영상회의로 진행된 첫 이노베이션 카운실에서는 멤버들이 미래기술 트렌드와 산업동향에 대해 의견을 나눴다. 또 코로나19로 인한 글로벌 경기침체 상황에서 디지털 전환을 통해 유연하게 대처해 성공한 사례를 공유했다. 뉴노멀 시대에 고객들의 변화된 라이프스타일을 반영한 홈IoT, 로보틱스, 모빌리티 등 미래기술과 신사업에 대해서도 논의했다. 이노베이션 카운실은 디지털전환에 기반해 미래기술 역량과 신사업의 경쟁력을 강화하는 방법을 전문가들과 함께 모색해 갈 계획이다. ◆ AI 전문가 적극 육성LG전자는 지난해 단행한 2021년 임원인사 및 조직개편에서 전사 관점의 미래준비를 위해 CSO(Chief Strategy Office) 부문 산하에 북미이노베이션센터를 신설하기도 했다. 북미이노베이션센터는 미국 실리콘밸리에서 새로운 사업모델을 발굴하고 업계를 선도하는 회사들과 협력한다. LG전자는 미국 국립표준기술원(NIST) 부국장을 역임한 이석우 전무를 영입해 센터장을 맡겼다. 사물인터넷(IoT) 분야 사업개발 전문가로 손꼽히는 이석우 전무는 미국 백악관에서 IoT 부문 대통령 혁신연구위원(Innovation Fellow)을 지냈다.2019년 말에는 인공지능 분야 차세대 리더인 미국 USC(University of Southern California) 컴퓨터공학부 조셉 림 교수를 영입하고 그에게 CTO 부문 산하 인공지능연구소의 영상지능 연구를 맡겼다.  조셉 림 교수는 MIT에서 석·박사 과정을 마쳤다. 2017년 33세의 젊은 나이로 USC 컴퓨터공학부 교수에 임명됐다. 강화학습(Reinforcement Learning) 알고리즘, 딥러닝(Deep Learning), 컴퓨터비전(Computer Vision) 등을 접목한 영상지능 분야의 전문가로 꼽힌다. LG전자는 인공지능 분야 인재 육성을 위해 기본, 중급, 고급, 전문가 등으로 프로그램을 세분화해 맞춤형 교육을 진행하고 있다.   [박재영 기자][ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>LG전자 ‘한마음 동행 페스타’ 진행</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>77형 TV 구매시 200만원 포인트모델들이 3일 LG베스트샵 서울 강서본점에서 31일까지 진행되는 ‘한마음 동행 페스타’를 소개하고 있다. 왼쪽부터 LG 오브제컬렉션 스타일러, 워시타워, 1도어 컨버터블 냉장고. LG전자 제공LG전자는 새해를 맞아 31일까지 ‘한마음 동행 페스타’를 진행한다고 3일 밝혔다.LG전자는 전국 LG베스트샵을 포함해 온·오프라인 매장에서 한마음 동행 페스타 특별전 행사제품을 구매하는 고객에게 혜택을 제공한다. 대상 제품은 TV, 냉장고, 에어컨, 워시타워, 건조기, 스타일러, 청소기, 공기청정기, 식기세척기, 전기레인지 등 15개 제품군 가운데 90여종이다.LG전자는 오프라인 매장에서 77형 올레드 TV(모델명 OLED77ZXK)를 구매한 고객에게 최대 200만원 상당의 멤버십 포인트나 캐시백 혜택 등을 제공한다. 21㎏ 용량 트롬세탁기 씽큐(모델명 F21VDD)나 16㎏ 용량 트롬건조기 스팀 씽큐(모델명 RH16VTS)를 구입할 경우 각각 최대 20만원 상당의 혜택을 받을 수 있다.공간 인테리어 가전 LG 오브제컬렉션 가운데 서로 다른 품목으로 3개 이상 구매한 고객에게 구매 제품 수에 따라 최대 200만원 상당의 멤버십 포인트나 모바일상품권을 제공한다. 워시타워, 건조기, 스타일러, 식기세척기 등 트루스팀이 탑재된 건강관리가전을 서로 다른 품목으로 4개 이상 구매 시 제휴카드로 결제하면 최대 30만원 상당의 혜택을 받는다.LG전자는 LG베스트샵이나 백화점에서 한마음 동행 페스타 특별전 행사제품을 구입한 후 이벤트에 응모한 고객 가운데 추첨을 통해 트롬 워시타워, 퓨리케어 360°2단 공기청정기, 디오스 와인셀러 미니 등 경품도 증정한다.김준엽 기자 snoopy@kmib.co.kr▶ 네이버에서 국민일보를 구독하세요(클릭)▶ 국민일보 홈페이지 바로가기GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>LG전자, 새해 맞이 ‘한마음 동행 페스타’</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>이달 말까지 전국 온·오프라인 매장서 총 90여 종의 행사제품 할인LG 오브제컬렉션 구매 고객에게 최대 200만원 상당 혜택 제공LG전자가 새해를 맞아 이달 31일까지 ‘한마음 동행 페스타’를 진행한다. 모델들이 서울 강서구에 위치한 LG베스트샵 강서본점에서 한마음 동행 페스타를 소개하고 있다. 사진 왼쪽부터 LG 오브제컬렉션 스타일러, 워시타워, 1도어 컨버터블 냉장고. [LG전자 제공][헤럴드경제 정세희 기자]LG전자가 새해를 맞아 이달 31일까지 ‘한마음 동행 페스타’를 진행한다고 3일 밝혔다.LG전자는 신종 코로나 바이러스 감염증(코로나19)으로 힘든 시기를 보내고 있는 국민들과 함께 한마음으로 새해를 희망차게 시작하고자 “함께하면 이겨낼 수 있습니다!”는 슬로건 하에 이번 행사를 마련했다.LG전자에 따르면 행사는 전국 LG베스트샵을 포함해 온·오프라인 매장에서 진행된다. 행사제품 대상은 TV, 냉장고, 에어컨, 워시타워, 건조기, 스타일러, 청소기, 공기청정기, 식기세척기, 전기레인지 등 15개 제품군 가운데 총 90여 종이다.LG전자는 오프라인 매장에서 77형 올레드 TV를 구매한 고객에게 최대 200만원 상당의 멤버십 포인트나 캐시백 혜택 등을 제공한다. 21kg 용량 트롬 세탁기 씽큐나 16kg 용량 트롬 건조기 스팀 씽큐를 구입할 경우 각각 최대 20만원 상당의 혜택을 받을 수 있다.공간 인테리어 가전 LG 오브제컬렉션과 건강관리가전 등 인기 가전 구입 고객들을 위한 행사도 마련했다.오브제컬렉션 제품 중 서로 다른 품목으로 3개 이상 구매한 고객에게 구매 제품 수에 따라 최대 200만원 상당의 멤버십 포인트나 모바일상품권을 제공한다.워시타워, 건조기, 스타일러, 식기세척기 등 트루스팀이 탑재된 건강관리가전을 서로 다른 품목으로 4개 이상 구매 시 제휴카드로 결제하면 최대 30만원 상당의 혜택을 받는다.이밖에도 LG베스트샵이나 백화점에서 한마음 동행 페스타 특별전 행사제품을 구입 후 이벤트에 응모한 고객들 가운데 추첨을 통해 트롬 워시타워, 퓨리케어 360&amp;deg; 2단 공기청정기, 디오스 와인셀러 미니 등 다양한 경품도 증정한다.상세 내용은 LG전자 홈페이지나 LG전자 멤버십 애플리케이션의 이벤트 페이지에서 확인 가능하다.say@heraldcorp.com▶환경적 대화기구 '헤럴드에코'▶밀리터리 전문 콘텐츠 ‘헤밀’▶헤럴드경제 네이버 채널 구독- Copyrights ⓒ 헤럴드경제 &amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>